--- a/CORE/files/excel/slp.xlsx
+++ b/CORE/files/excel/slp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\apoteke-app\CORE\files\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFEBD8D-0B44-4759-92A9-3F11006F06E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF2405A-B20F-4590-8456-0FB4776747BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{98093512-ABB9-4A42-BAEA-5361E452C139}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{98093512-ABB9-4A42-BAEA-5361E452C139}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
   <si>
     <t>NALOG ZA SLUŽBENO PUTOVANJE</t>
   </si>
@@ -164,6 +164,39 @@
   </si>
   <si>
     <t>E) Primljena akontacija</t>
+  </si>
+  <si>
+    <t>POTVRDA O IZVRŠENJU NALOGA</t>
+  </si>
+  <si>
+    <t>1. Potvrđuje se da je</t>
+  </si>
+  <si>
+    <t>boravio-la u vezi sa prednjim putnim nalogom u ovom preduzeću - organu</t>
+  </si>
+  <si>
+    <t>od</t>
+  </si>
+  <si>
+    <t>do</t>
+  </si>
+  <si>
+    <t>(potpis ovlaštenog lica)</t>
+  </si>
+  <si>
+    <t>M.P</t>
+  </si>
+  <si>
+    <t>2. Potvrđuje se da je</t>
+  </si>
+  <si>
+    <t>3. Potvrđuje se da je</t>
+  </si>
+  <si>
+    <t>4. Potvrđuje se da je</t>
+  </si>
+  <si>
+    <t>5. Potvrđuje se da je</t>
   </si>
 </sst>
 </file>
@@ -681,7 +714,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -802,15 +835,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -820,36 +877,111 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -883,103 +1015,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1299,90 +1335,91 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P37"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
     <col min="8" max="8" width="8.88671875" customWidth="1"/>
     <col min="9" max="9" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-      <c r="I1" s="60" t="s">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="I1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
       <c r="M1" s="14"/>
       <c r="N1" s="14"/>
       <c r="O1" s="14"/>
       <c r="P1" s="14"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="6"/>
-      <c r="I2" s="61" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="5"/>
+      <c r="I2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="6"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="5"/>
       <c r="I3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
+      <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
+      <c r="G4" s="5"/>
       <c r="I4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
       <c r="L4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1392,13 +1429,15 @@
       <c r="P4" s="5"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6"/>
+      <c r="A5" s="112" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="112"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
@@ -1409,13 +1448,15 @@
       <c r="P5" s="11"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
+      <c r="A6" s="112" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="112"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
       <c r="K6" s="17"/>
@@ -1426,32 +1467,38 @@
       <c r="P6" s="15"/>
     </row>
     <row r="7" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6"/>
-      <c r="I7" s="63" t="s">
+      <c r="A7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="63"/>
-      <c r="N7" s="63"/>
-      <c r="O7" s="63"/>
-      <c r="P7" s="63"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
     </row>
     <row r="8" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
+      <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
+      <c r="G8" s="5"/>
       <c r="I8" s="18"/>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
@@ -1462,211 +1509,231 @@
       <c r="P8" s="12"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
+      <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
+      <c r="E9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
+      <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6"/>
-      <c r="I10" s="55" t="s">
+      <c r="F10" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="58"/>
+      <c r="I10" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="55"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="63"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
+      <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="6"/>
-      <c r="I11" s="56" t="s">
+      <c r="G11" s="5"/>
+      <c r="I11" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="J11" s="56"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="56" t="s">
+      <c r="J11" s="64"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="N11" s="56"/>
+      <c r="N11" s="64"/>
       <c r="O11" s="13"/>
       <c r="P11" s="24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="6"/>
+      <c r="A12" s="112" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="112"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
       <c r="I12" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
       <c r="L12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M12" s="57" t="s">
+      <c r="M12" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="57"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="65"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="6"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="65"/>
-      <c r="M13" s="65"/>
-      <c r="N13" s="65"/>
-      <c r="O13" s="65"/>
-      <c r="P13" s="65"/>
+      <c r="A13" s="112" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="112"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="112"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="6"/>
+      <c r="A14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="I14" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="58"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="55"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
+      <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="6"/>
-      <c r="I15" s="52" t="s">
+      <c r="G15" s="5"/>
+      <c r="I15" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="52"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
       <c r="M15" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="60"/>
       <c r="P15" s="50" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
+      <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="6"/>
-      <c r="I16" s="52" t="s">
+      <c r="E16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="I16" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="58"/>
-      <c r="P16" s="58"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="55"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
+      <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="6"/>
-      <c r="I17" s="56" t="s">
+      <c r="F17" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="58"/>
+      <c r="I17" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="J17" s="56"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="54"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="53"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
+      <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="6"/>
-      <c r="I18" s="52" t="s">
+      <c r="G18" s="5"/>
+      <c r="I18" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="J18" s="52"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="53"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="62"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="6"/>
+      <c r="A19" s="112" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="112"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="12"/>
@@ -1677,13 +1744,15 @@
       <c r="P19" s="12"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="6"/>
+      <c r="A20" s="112" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="112"/>
+      <c r="C20" s="112"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
@@ -1694,30 +1763,36 @@
       <c r="P20" s="12"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="6"/>
+      <c r="A21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="54"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="53"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
+      <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="6"/>
+      <c r="G22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
@@ -1729,13 +1804,15 @@
       <c r="P22" s="5"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
+      <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="6"/>
+      <c r="E23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
@@ -1747,13 +1824,15 @@
       <c r="P23" s="5"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
+      <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="6"/>
+      <c r="F24" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" s="58"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
@@ -1764,13 +1843,13 @@
       <c r="P24" s="12"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
+      <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="6"/>
+      <c r="G25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
@@ -1781,13 +1860,15 @@
       <c r="P25" s="5"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="6"/>
+      <c r="A26" s="112" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="112"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
@@ -1798,13 +1879,15 @@
       <c r="P26" s="12"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="6"/>
+      <c r="A27" s="112" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="112"/>
+      <c r="C27" s="112"/>
+      <c r="D27" s="112"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="112"/>
+      <c r="G27" s="112"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
@@ -1815,13 +1898,19 @@
       <c r="P27" s="5"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="6"/>
+      <c r="A28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
@@ -1832,13 +1921,13 @@
       <c r="P28" s="5"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
+      <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="6"/>
+      <c r="G29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
@@ -1849,13 +1938,15 @@
       <c r="P29" s="12"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
+      <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="6"/>
+      <c r="E30" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
@@ -1866,13 +1957,15 @@
       <c r="P30" s="12"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
+      <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="6"/>
+      <c r="F31" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="G31" s="58"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
@@ -1883,13 +1976,13 @@
       <c r="P31" s="19"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="4"/>
+      <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="6"/>
+      <c r="G32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
@@ -1900,13 +1993,15 @@
       <c r="P32" s="5"/>
     </row>
     <row r="33" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="6"/>
+      <c r="A33" s="112" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="112"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
       <c r="I33" s="20"/>
       <c r="J33" s="20"/>
       <c r="K33" s="20"/>
@@ -1917,13 +2012,15 @@
       <c r="P33" s="20"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="6"/>
+      <c r="A34" s="112" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="112"/>
+      <c r="C34" s="112"/>
+      <c r="D34" s="112"/>
+      <c r="E34" s="112"/>
+      <c r="F34" s="112"/>
+      <c r="G34" s="112"/>
       <c r="I34" s="20"/>
       <c r="J34" s="20"/>
       <c r="K34" s="20"/>
@@ -1934,13 +2031,19 @@
       <c r="P34" s="20"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="4"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="6"/>
+      <c r="A35" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="59"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
@@ -1951,13 +2054,13 @@
       <c r="P35" s="5"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="4"/>
+      <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="6"/>
+      <c r="G36" s="5"/>
       <c r="I36" s="12"/>
       <c r="J36" s="12"/>
       <c r="K36" s="12"/>
@@ -1967,14 +2070,16 @@
       <c r="O36" s="12"/>
       <c r="P36" s="12"/>
     </row>
-    <row r="37" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="7"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="9"/>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F37" s="59"/>
+      <c r="G37" s="59"/>
       <c r="I37" s="19"/>
       <c r="J37" s="19"/>
       <c r="K37" s="19"/>
@@ -1984,18 +2089,47 @@
       <c r="O37" s="19"/>
       <c r="P37" s="19"/>
     </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="G38" s="58"/>
+    </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="I9:P9"/>
-    <mergeCell ref="I13:P13"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="I7:P7"/>
+  <mergeCells count="60">
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="F17:G17"/>
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="K18:P18"/>
     <mergeCell ref="N21:P21"/>
@@ -2011,6 +2145,23 @@
     <mergeCell ref="K17:P17"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="N15:O15"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="I7:P7"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="I9:P9"/>
+    <mergeCell ref="I13:P13"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F9:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="86" orientation="landscape" r:id="rId1"/>
@@ -2024,7 +2175,7 @@
   </sheetPr>
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M15" sqref="M15:N15"/>
     </sheetView>
   </sheetViews>
@@ -2047,54 +2198,54 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
     </row>
     <row r="2" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
       <c r="G2" s="6"/>
-      <c r="I2" s="95" t="s">
+      <c r="I2" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="95"/>
-      <c r="P2" s="95"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
       <c r="G3" s="6"/>
-      <c r="I3" s="56" t="s">
+      <c r="I3" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
@@ -2104,16 +2255,16 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="6"/>
-      <c r="I4" s="56" t="s">
+      <c r="I4" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
@@ -2123,16 +2274,16 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="6"/>
-      <c r="I5" s="56" t="s">
+      <c r="I5" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="64"/>
     </row>
     <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
@@ -2159,18 +2310,18 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="6"/>
-      <c r="I7" s="96" t="s">
+      <c r="I7" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="97"/>
-      <c r="K7" s="97"/>
-      <c r="L7" s="97"/>
-      <c r="M7" s="97"/>
-      <c r="N7" s="97"/>
-      <c r="O7" s="98" t="s">
+      <c r="J7" s="78"/>
+      <c r="K7" s="78"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="78"/>
+      <c r="N7" s="78"/>
+      <c r="O7" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="P7" s="99"/>
+      <c r="P7" s="80"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
@@ -2180,13 +2331,13 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="6"/>
-      <c r="I8" s="79" t="s">
+      <c r="I8" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="80"/>
-      <c r="K8" s="80"/>
-      <c r="L8" s="80"/>
-      <c r="M8" s="80"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="82"/>
       <c r="N8" s="26" t="s">
         <v>25</v>
       </c>
@@ -2201,10 +2352,10 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="86"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="88"/>
       <c r="M9" s="28"/>
       <c r="N9" s="26"/>
       <c r="O9" s="25"/>
@@ -2218,10 +2369,10 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="6"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="85"/>
-      <c r="L10" s="86"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="88"/>
       <c r="M10" s="28"/>
       <c r="N10" s="26"/>
       <c r="O10" s="25" t="s">
@@ -2240,10 +2391,10 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="6"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="88"/>
       <c r="M11" s="27"/>
       <c r="N11" s="27"/>
       <c r="O11" s="25"/>
@@ -2257,10 +2408,10 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="83"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="85"/>
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
       <c r="O12" s="25" t="s">
@@ -2279,10 +2430,10 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="6"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="83"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="85"/>
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
       <c r="O13" s="32"/>
@@ -2296,14 +2447,14 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="6"/>
-      <c r="I14" s="88" t="s">
+      <c r="I14" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="J14" s="89"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="89"/>
-      <c r="N14" s="89"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="91"/>
+      <c r="M14" s="91"/>
+      <c r="N14" s="91"/>
       <c r="O14" s="31"/>
       <c r="P14" s="47"/>
     </row>
@@ -2315,14 +2466,14 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="6"/>
-      <c r="I15" s="100"/>
-      <c r="J15" s="101"/>
+      <c r="I15" s="96"/>
+      <c r="J15" s="97"/>
       <c r="K15" s="33" t="s">
         <v>29</v>
       </c>
       <c r="L15" s="34"/>
-      <c r="M15" s="101"/>
-      <c r="N15" s="101"/>
+      <c r="M15" s="97"/>
+      <c r="N15" s="97"/>
       <c r="O15" s="35" t="s">
         <v>26</v>
       </c>
@@ -2336,14 +2487,14 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="6"/>
-      <c r="I16" s="102"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="103" t="s">
+      <c r="I16" s="98"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="L16" s="103"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
+      <c r="L16" s="99"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
       <c r="O16" s="36" t="s">
         <v>27</v>
       </c>
@@ -2357,14 +2508,14 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="6"/>
-      <c r="I17" s="90" t="s">
+      <c r="I17" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="J17" s="91"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="67"/>
-      <c r="M17" s="67"/>
-      <c r="N17" s="67"/>
+      <c r="J17" s="93"/>
+      <c r="K17" s="93"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="68"/>
       <c r="O17" s="37"/>
       <c r="P17" s="48"/>
     </row>
@@ -2376,14 +2527,14 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="6"/>
-      <c r="I18" s="92" t="s">
+      <c r="I18" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="J18" s="93"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="93"/>
-      <c r="N18" s="93"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="95"/>
+      <c r="L18" s="95"/>
+      <c r="M18" s="95"/>
+      <c r="N18" s="95"/>
       <c r="O18" s="38"/>
       <c r="P18" s="47"/>
     </row>
@@ -2395,11 +2546,11 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="6"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="68"/>
+      <c r="I19" s="100"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="101"/>
       <c r="N19" s="51"/>
       <c r="O19" s="39" t="s">
         <v>26</v>
@@ -2417,11 +2568,11 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="6"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
-      <c r="M20" s="68"/>
+      <c r="I20" s="100"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="101"/>
       <c r="N20" s="51"/>
       <c r="O20" s="39" t="s">
         <v>27</v>
@@ -2439,11 +2590,11 @@
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="6"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="67"/>
-      <c r="M21" s="68"/>
+      <c r="I21" s="100"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="101"/>
       <c r="N21" s="51"/>
       <c r="O21" s="37"/>
       <c r="P21" s="48"/>
@@ -2456,14 +2607,14 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="6"/>
-      <c r="I22" s="69" t="s">
+      <c r="I22" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="J22" s="70"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="70"/>
-      <c r="M22" s="70"/>
-      <c r="N22" s="71"/>
+      <c r="J22" s="103"/>
+      <c r="K22" s="103"/>
+      <c r="L22" s="103"/>
+      <c r="M22" s="103"/>
+      <c r="N22" s="104"/>
       <c r="O22" s="40" t="s">
         <v>26</v>
       </c>
@@ -2480,12 +2631,12 @@
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="6"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="73"/>
-      <c r="L23" s="73"/>
-      <c r="M23" s="73"/>
-      <c r="N23" s="74"/>
+      <c r="I23" s="105"/>
+      <c r="J23" s="106"/>
+      <c r="K23" s="106"/>
+      <c r="L23" s="106"/>
+      <c r="M23" s="106"/>
+      <c r="N23" s="107"/>
       <c r="O23" s="41" t="s">
         <v>27</v>
       </c>
@@ -2502,14 +2653,14 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="6"/>
-      <c r="I24" s="75" t="s">
+      <c r="I24" s="108" t="s">
         <v>45</v>
       </c>
-      <c r="J24" s="70"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="70"/>
-      <c r="M24" s="70"/>
-      <c r="N24" s="71"/>
+      <c r="J24" s="103"/>
+      <c r="K24" s="103"/>
+      <c r="L24" s="103"/>
+      <c r="M24" s="103"/>
+      <c r="N24" s="104"/>
       <c r="O24" s="40" t="s">
         <v>26</v>
       </c>
@@ -2523,12 +2674,12 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="6"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="77"/>
-      <c r="K25" s="77"/>
-      <c r="L25" s="77"/>
-      <c r="M25" s="77"/>
-      <c r="N25" s="78"/>
+      <c r="I25" s="109"/>
+      <c r="J25" s="110"/>
+      <c r="K25" s="110"/>
+      <c r="L25" s="110"/>
+      <c r="M25" s="110"/>
+      <c r="N25" s="111"/>
       <c r="O25" s="41" t="s">
         <v>27</v>
       </c>
@@ -2542,19 +2693,19 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="6"/>
-      <c r="I26" s="81" t="s">
+      <c r="I26" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="J26" s="82"/>
-      <c r="K26" s="82"/>
+      <c r="J26" s="84"/>
+      <c r="K26" s="84"/>
       <c r="L26" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="M26" s="58">
+      <c r="M26" s="55">
         <f>P22-P24</f>
         <v>0</v>
       </c>
-      <c r="N26" s="83"/>
+      <c r="N26" s="85"/>
       <c r="O26" s="42" t="s">
         <v>27</v>
       </c>
@@ -2571,22 +2722,22 @@
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="6"/>
-      <c r="I27" s="104" t="s">
+      <c r="I27" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="J27" s="106" t="s">
+      <c r="J27" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="K27" s="107"/>
-      <c r="L27" s="106" t="s">
+      <c r="K27" s="72"/>
+      <c r="L27" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="M27" s="107"/>
-      <c r="N27" s="106" t="s">
+      <c r="M27" s="72"/>
+      <c r="N27" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="O27" s="107"/>
-      <c r="P27" s="110" t="s">
+      <c r="O27" s="72"/>
+      <c r="P27" s="66" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2598,14 +2749,14 @@
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="6"/>
-      <c r="I28" s="105"/>
-      <c r="J28" s="108"/>
-      <c r="K28" s="109"/>
-      <c r="L28" s="108"/>
-      <c r="M28" s="109"/>
-      <c r="N28" s="108"/>
-      <c r="O28" s="109"/>
-      <c r="P28" s="111"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="74"/>
+      <c r="L28" s="73"/>
+      <c r="M28" s="74"/>
+      <c r="N28" s="73"/>
+      <c r="O28" s="74"/>
+      <c r="P28" s="67"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
@@ -2858,20 +3009,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="P27:P28"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:K28"/>
-    <mergeCell ref="L27:M28"/>
-    <mergeCell ref="N27:O28"/>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="I7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="I3:P3"/>
-    <mergeCell ref="I4:P4"/>
-    <mergeCell ref="I5:P5"/>
     <mergeCell ref="I8:M8"/>
     <mergeCell ref="I26:K26"/>
     <mergeCell ref="M26:N26"/>
@@ -2888,6 +3025,20 @@
     <mergeCell ref="M15:N15"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="K16:L16"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="I7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="I3:P3"/>
+    <mergeCell ref="I4:P4"/>
+    <mergeCell ref="I5:P5"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:K28"/>
+    <mergeCell ref="L27:M28"/>
+    <mergeCell ref="N27:O28"/>
     <mergeCell ref="I19:M19"/>
     <mergeCell ref="I20:M20"/>
     <mergeCell ref="I21:M21"/>

--- a/CORE/files/excel/slp.xlsx
+++ b/CORE/files/excel/slp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\apoteke-app\CORE\files\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF2405A-B20F-4590-8456-0FB4776747BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E6B2E1-D3FB-467B-BC0C-FE1DA8CBCC74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{98093512-ABB9-4A42-BAEA-5361E452C139}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{98093512-ABB9-4A42-BAEA-5361E452C139}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,14 +26,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="61">
   <si>
     <t>NALOG ZA SLUŽBENO PUTOVANJE</t>
   </si>
   <si>
-    <t>IZVJEŠTAJ O SLUŽBENOM PUTOVANJU</t>
-  </si>
-  <si>
     <t>(preduzeće-organizacija)</t>
   </si>
   <si>
@@ -91,9 +88,6 @@
     <t>M.P.</t>
   </si>
   <si>
-    <t>OBRAČUN TROŠKOVA PUTOVANJA</t>
-  </si>
-  <si>
     <t>A) Troškovi prevoza</t>
   </si>
   <si>
@@ -118,24 +112,12 @@
     <t>dnevnice po KM</t>
   </si>
   <si>
-    <t>Na put sam krenuo-la    ______________________ god, u______________sati</t>
-  </si>
-  <si>
-    <t>Vratio -la sam se dana   ______________________ god, u______________sati</t>
-  </si>
-  <si>
-    <t>Na putu sam proveo-la _______________________ god, u______________sati</t>
-  </si>
-  <si>
     <t>dnevnice po EUR</t>
   </si>
   <si>
     <t>% dodatak na dnevnice</t>
   </si>
   <si>
-    <t>C) Ostali izdaci (uz dokumentacij)</t>
-  </si>
-  <si>
     <t>D) Ukupni troškovi putovanja</t>
   </si>
   <si>
@@ -197,6 +179,37 @@
   </si>
   <si>
     <t>5. Potvrđuje se da je</t>
+  </si>
+  <si>
+    <t>IZVJEŠTAJ 
+o izvršenom putovanju</t>
+  </si>
+  <si>
+    <t>(potpis podnosioca izvještaja)</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>Obračun troškova putovanja</t>
+  </si>
+  <si>
+    <t>Na put sam krenuo-la</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vratio -la sam se dana </t>
+  </si>
+  <si>
+    <t>god. u</t>
+  </si>
+  <si>
+    <t>Na putu sam proveo-la</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dana i </t>
+  </si>
+  <si>
+    <t>C) Ostali izdaci (uz dokumentaciju)</t>
   </si>
 </sst>
 </file>
@@ -714,7 +727,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -835,47 +848,116 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -883,9 +965,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -904,81 +983,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1015,9 +1019,43 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1335,10 +1373,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:P81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="K15:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1349,79 +1387,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="I1" s="57" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+      <c r="I1" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
       <c r="M1" s="14"/>
       <c r="N1" s="14"/>
       <c r="O1" s="14"/>
       <c r="P1" s="14"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="5"/>
-      <c r="I2" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="109" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="6"/>
+      <c r="I2" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="5"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="6"/>
       <c r="I3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
+        <v>3</v>
+      </c>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
+      <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="G4" s="6"/>
       <c r="I4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="5" t="s">
-        <v>6</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
@@ -1429,15 +1467,13 @@
       <c r="P4" s="5"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="112" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="112"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6"/>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
@@ -1448,15 +1484,13 @@
       <c r="P5" s="11"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="112" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="112"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6"/>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
       <c r="K6" s="17"/>
@@ -1467,38 +1501,32 @@
       <c r="P6" s="15"/>
     </row>
     <row r="7" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="61" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6"/>
+      <c r="I7" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="64"/>
     </row>
     <row r="8" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
+      <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="G8" s="6"/>
       <c r="I8" s="18"/>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
@@ -1509,231 +1537,211 @@
       <c r="P8" s="12"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
+      <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
+      <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="58"/>
-      <c r="I10" s="63" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="63"/>
-      <c r="N10" s="63"/>
-      <c r="O10" s="63"/>
-      <c r="P10" s="63"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
+      <c r="I10" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="58"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
+      <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="I11" s="64" t="s">
+      <c r="G11" s="6"/>
+      <c r="I11" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="59"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="J11" s="64"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="64" t="s">
-        <v>9</v>
-      </c>
-      <c r="N11" s="64"/>
+      <c r="N11" s="59"/>
       <c r="O11" s="13"/>
       <c r="P11" s="24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
+      <c r="I12" s="12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="112" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="112"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="I12" s="12" t="s">
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="12" t="s">
+      <c r="N12" s="60"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="60"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="66"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6"/>
+      <c r="I14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M12" s="65" t="s">
-        <v>12</v>
-      </c>
-      <c r="N12" s="65"/>
-      <c r="O12" s="65"/>
-      <c r="P12" s="65"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="112" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="112"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="112"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="55"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="61"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="I15" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="56"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="60"/>
+      <c r="G15" s="6"/>
+      <c r="I15" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="55"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
       <c r="M15" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="N15" s="60"/>
-      <c r="O15" s="60"/>
+        <v>37</v>
+      </c>
+      <c r="N15" s="62"/>
+      <c r="O15" s="62"/>
       <c r="P15" s="50" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="I16" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="55"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6"/>
+      <c r="I16" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="61"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="G17" s="58"/>
-      <c r="I17" s="64" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" s="64"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="53"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="6"/>
+      <c r="I17" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="59"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
+      <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="I18" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" s="56"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="62"/>
-      <c r="N18" s="62"/>
-      <c r="O18" s="62"/>
-      <c r="P18" s="62"/>
+      <c r="G18" s="6"/>
+      <c r="I18" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="55"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="56"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="112" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="112"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="6"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="12"/>
@@ -1744,15 +1752,13 @@
       <c r="P19" s="12"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="112" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="112"/>
-      <c r="C20" s="112"/>
-      <c r="D20" s="112"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="6"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
@@ -1763,76 +1769,66 @@
       <c r="P20" s="12"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="5" t="s">
-        <v>6</v>
-      </c>
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="6"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="53"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="57"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
+      <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
+      <c r="G22" s="6"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
       <c r="O22" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P22" s="5"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
+      <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="6"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
       <c r="O23" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P23" s="5"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
+      <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="G24" s="58"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="6"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
@@ -1843,13 +1839,13 @@
       <c r="P24" s="12"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
+      <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
+      <c r="G25" s="6"/>
       <c r="I25" s="5"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
@@ -1860,15 +1856,13 @@
       <c r="P25" s="5"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="112" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" s="112"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="6"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
@@ -1879,15 +1873,13 @@
       <c r="P26" s="12"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="112" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="112"/>
-      <c r="C27" s="112"/>
-      <c r="D27" s="112"/>
-      <c r="E27" s="112"/>
-      <c r="F27" s="112"/>
-      <c r="G27" s="112"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="6"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
@@ -1898,19 +1890,13 @@
       <c r="P27" s="5"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="5" t="s">
-        <v>6</v>
-      </c>
+      <c r="A28" s="4"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="6"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
@@ -1921,13 +1907,13 @@
       <c r="P28" s="5"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
+      <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
+      <c r="G29" s="6"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
@@ -1938,15 +1924,13 @@
       <c r="P29" s="12"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
+      <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="6"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
@@ -1957,15 +1941,13 @@
       <c r="P30" s="12"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
+      <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
-      <c r="F31" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="G31" s="58"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="6"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
@@ -1976,13 +1958,13 @@
       <c r="P31" s="19"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
+      <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
+      <c r="G32" s="6"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
@@ -1993,15 +1975,13 @@
       <c r="P32" s="5"/>
     </row>
     <row r="33" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="112" t="s">
-        <v>56</v>
-      </c>
-      <c r="B33" s="112"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="6"/>
       <c r="I33" s="20"/>
       <c r="J33" s="20"/>
       <c r="K33" s="20"/>
@@ -2012,15 +1992,13 @@
       <c r="P33" s="20"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="112" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" s="112"/>
-      <c r="C34" s="112"/>
-      <c r="D34" s="112"/>
-      <c r="E34" s="112"/>
-      <c r="F34" s="112"/>
-      <c r="G34" s="112"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="6"/>
       <c r="I34" s="20"/>
       <c r="J34" s="20"/>
       <c r="K34" s="20"/>
@@ -2029,836 +2007,6 @@
       <c r="N34" s="20"/>
       <c r="O34" s="20"/>
       <c r="P34" s="20"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="59"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F37" s="59"/>
-      <c r="G37" s="59"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="19"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="G38" s="58"/>
-    </row>
-  </sheetData>
-  <mergeCells count="60">
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:P18"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="I10:P10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:P17"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="I7:P7"/>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="I9:P9"/>
-    <mergeCell ref="I13:P13"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F9:G9"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="86" orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{042ABED5-DC3E-487B-8EB4-5F2A1587B9E8}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:P43"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15:N15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="9" max="9" width="7.6640625" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" customWidth="1"/>
-    <col min="11" max="11" width="8" customWidth="1"/>
-    <col min="12" max="12" width="7.88671875" customWidth="1"/>
-    <col min="13" max="13" width="5.6640625" customWidth="1"/>
-    <col min="15" max="15" width="4.77734375" customWidth="1"/>
-    <col min="16" max="16" width="16.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-    </row>
-    <row r="2" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="6"/>
-      <c r="I2" s="76" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="6"/>
-      <c r="I3" s="64" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
-      <c r="I4" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="64"/>
-      <c r="P4" s="64"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6"/>
-      <c r="I5" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="64"/>
-    </row>
-    <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6"/>
-      <c r="I7" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="78"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="78"/>
-      <c r="M7" s="78"/>
-      <c r="N7" s="78"/>
-      <c r="O7" s="79" t="s">
-        <v>23</v>
-      </c>
-      <c r="P7" s="80"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
-      <c r="I8" s="81" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="82"/>
-      <c r="K8" s="82"/>
-      <c r="L8" s="82"/>
-      <c r="M8" s="82"/>
-      <c r="N8" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="O8" s="31"/>
-      <c r="P8" s="44"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="87"/>
-      <c r="K9" s="87"/>
-      <c r="L9" s="88"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="45"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="88"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="P10" s="46">
-        <f>SUM(N9,N10,N11,N12,N13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="6"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="88"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="45"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="6"/>
-      <c r="I12" s="89"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="85"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="P12" s="46">
-        <f>SUM(N9,N10,N11,N12,N13)/2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="6"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="85"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="46"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="6"/>
-      <c r="I14" s="90" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" s="91"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="91"/>
-      <c r="M14" s="91"/>
-      <c r="N14" s="91"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="47"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="6"/>
-      <c r="I15" s="96"/>
-      <c r="J15" s="97"/>
-      <c r="K15" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="L15" s="34"/>
-      <c r="M15" s="97"/>
-      <c r="N15" s="97"/>
-      <c r="O15" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="P15" s="48"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="6"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="99" t="s">
-        <v>33</v>
-      </c>
-      <c r="L16" s="99"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="68"/>
-      <c r="O16" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="P16" s="49"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="6"/>
-      <c r="I17" s="92" t="s">
-        <v>34</v>
-      </c>
-      <c r="J17" s="93"/>
-      <c r="K17" s="93"/>
-      <c r="L17" s="68"/>
-      <c r="M17" s="68"/>
-      <c r="N17" s="68"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="48"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="6"/>
-      <c r="I18" s="94" t="s">
-        <v>35</v>
-      </c>
-      <c r="J18" s="95"/>
-      <c r="K18" s="95"/>
-      <c r="L18" s="95"/>
-      <c r="M18" s="95"/>
-      <c r="N18" s="95"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="47"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="6"/>
-      <c r="I19" s="100"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="68"/>
-      <c r="M19" s="101"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="P19" s="48">
-        <f>SUM(N19:N21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="6"/>
-      <c r="I20" s="100"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="68"/>
-      <c r="M20" s="101"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="P20" s="49">
-        <f>SUM(N19:N21)/2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="6"/>
-      <c r="I21" s="100"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="68"/>
-      <c r="L21" s="68"/>
-      <c r="M21" s="101"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="48"/>
-    </row>
-    <row r="22" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="6"/>
-      <c r="I22" s="102" t="s">
-        <v>36</v>
-      </c>
-      <c r="J22" s="103"/>
-      <c r="K22" s="103"/>
-      <c r="L22" s="103"/>
-      <c r="M22" s="103"/>
-      <c r="N22" s="104"/>
-      <c r="O22" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="P22" s="49">
-        <f>SUM(P10,P15,P19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="6"/>
-      <c r="I23" s="105"/>
-      <c r="J23" s="106"/>
-      <c r="K23" s="106"/>
-      <c r="L23" s="106"/>
-      <c r="M23" s="106"/>
-      <c r="N23" s="107"/>
-      <c r="O23" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="P23" s="49">
-        <f>SUM(P12,P16,P20)/2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="6"/>
-      <c r="I24" s="108" t="s">
-        <v>45</v>
-      </c>
-      <c r="J24" s="103"/>
-      <c r="K24" s="103"/>
-      <c r="L24" s="103"/>
-      <c r="M24" s="103"/>
-      <c r="N24" s="104"/>
-      <c r="O24" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="P24" s="49"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="6"/>
-      <c r="I25" s="109"/>
-      <c r="J25" s="110"/>
-      <c r="K25" s="110"/>
-      <c r="L25" s="110"/>
-      <c r="M25" s="110"/>
-      <c r="N25" s="111"/>
-      <c r="O25" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="P25" s="49"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="6"/>
-      <c r="I26" s="83" t="s">
-        <v>37</v>
-      </c>
-      <c r="J26" s="84"/>
-      <c r="K26" s="84"/>
-      <c r="L26" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="M26" s="55">
-        <f>P22-P24</f>
-        <v>0</v>
-      </c>
-      <c r="N26" s="85"/>
-      <c r="O26" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="P26" s="49">
-        <f>P23-P25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="6"/>
-      <c r="I27" s="69" t="s">
-        <v>42</v>
-      </c>
-      <c r="J27" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="K27" s="72"/>
-      <c r="L27" s="71" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="72"/>
-      <c r="N27" s="71" t="s">
-        <v>39</v>
-      </c>
-      <c r="O27" s="72"/>
-      <c r="P27" s="66" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="4"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="6"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="74"/>
-      <c r="L28" s="73"/>
-      <c r="M28" s="74"/>
-      <c r="N28" s="73"/>
-      <c r="O28" s="74"/>
-      <c r="P28" s="67"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="6"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="21"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="6"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="21"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="6"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="21"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="4"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="6"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="6"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="6"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
@@ -2889,10 +2037,10 @@
       <c r="J36" s="12"/>
       <c r="K36" s="12"/>
       <c r="L36" s="5"/>
-      <c r="M36" s="12"/>
+      <c r="M36" s="5"/>
       <c r="N36" s="12"/>
       <c r="O36" s="12"/>
-      <c r="P36" s="5"/>
+      <c r="P36" s="12"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
@@ -2906,19 +2054,1253 @@
       <c r="J37" s="19"/>
       <c r="K37" s="19"/>
       <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38" s="4"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="110" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" s="110"/>
+      <c r="F38" s="110"/>
+      <c r="G38" s="111"/>
+    </row>
+    <row r="39" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="7"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="9"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A44" s="5"/>
+      <c r="B44" s="112"/>
+      <c r="C44" s="112"/>
+      <c r="D44" s="112"/>
+      <c r="E44" s="112"/>
+      <c r="F44" s="112"/>
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A45" s="5"/>
+      <c r="B45" s="112"/>
+      <c r="C45" s="112"/>
+      <c r="D45" s="112"/>
+      <c r="E45" s="112"/>
+      <c r="F45" s="112"/>
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="15"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="I9:P9"/>
+    <mergeCell ref="I13:P13"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="I7:P7"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:P18"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="I10:P10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:P17"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="N15:O15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="86" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{042ABED5-DC3E-487B-8EB4-5F2A1587B9E8}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:P43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="7.6640625" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" customWidth="1"/>
+    <col min="11" max="11" width="8" customWidth="1"/>
+    <col min="12" max="12" width="7.88671875" customWidth="1"/>
+    <col min="13" max="13" width="5.6640625" customWidth="1"/>
+    <col min="15" max="15" width="6.109375" customWidth="1"/>
+    <col min="16" max="16" width="16.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="I1" s="113" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="113" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="115"/>
+      <c r="P1" s="18"/>
+    </row>
+    <row r="2" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="5"/>
+      <c r="I2" s="84" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="5"/>
+      <c r="I3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="O3" s="13"/>
+      <c r="P3" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="I4" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="O4" s="116"/>
+      <c r="P4" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="54"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="I5" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" s="116"/>
+      <c r="P5" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="87" t="s">
+        <v>21</v>
+      </c>
+      <c r="P7" s="88"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="I8" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="31"/>
+      <c r="P8" s="44"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="119"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="45"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="53"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="119"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="P10" s="46">
+        <f>SUM(N9,N10,N11,N12,N13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="118"/>
+      <c r="K11" s="118"/>
+      <c r="L11" s="119"/>
+      <c r="M11" s="120"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="45"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="54"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="121"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="P12" s="46">
+        <f>SUM(N9,N10,N11,N12,N13)/2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="121"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="46"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="74"/>
+      <c r="N14" s="74"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="47"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="81"/>
+      <c r="K15" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" s="34"/>
+      <c r="M15" s="81"/>
+      <c r="N15" s="81"/>
+      <c r="O15" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="P15" s="48"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" s="83"/>
+      <c r="M16" s="77"/>
+      <c r="N16" s="77"/>
+      <c r="O16" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="P16" s="49"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="53"/>
+      <c r="I17" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="77"/>
+      <c r="N17" s="77"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="48"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="I18" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="J18" s="79"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="79"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="47"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="54"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="I19" s="97"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="98"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="P19" s="48">
+        <f>SUM(N19:N21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="I20" s="97"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="98"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="P20" s="49">
+        <f>SUM(N19:N21)/2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="97"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="77"/>
+      <c r="M21" s="98"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="48"/>
+    </row>
+    <row r="22" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="I22" s="99" t="s">
+        <v>30</v>
+      </c>
+      <c r="J22" s="100"/>
+      <c r="K22" s="100"/>
+      <c r="L22" s="100"/>
+      <c r="M22" s="100"/>
+      <c r="N22" s="101"/>
+      <c r="O22" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="P22" s="49">
+        <f>SUM(P10,P15,P19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="I23" s="102"/>
+      <c r="J23" s="103"/>
+      <c r="K23" s="103"/>
+      <c r="L23" s="103"/>
+      <c r="M23" s="103"/>
+      <c r="N23" s="104"/>
+      <c r="O23" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="P23" s="49">
+        <f>SUM(P12,P16,P20)/2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="53"/>
+      <c r="I24" s="105" t="s">
+        <v>39</v>
+      </c>
+      <c r="J24" s="100"/>
+      <c r="K24" s="100"/>
+      <c r="L24" s="100"/>
+      <c r="M24" s="100"/>
+      <c r="N24" s="101"/>
+      <c r="O24" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="P24" s="49"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="I25" s="106"/>
+      <c r="J25" s="107"/>
+      <c r="K25" s="107"/>
+      <c r="L25" s="107"/>
+      <c r="M25" s="107"/>
+      <c r="N25" s="108"/>
+      <c r="O25" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="P25" s="49"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="54"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="I26" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="J26" s="70"/>
+      <c r="K26" s="70"/>
+      <c r="L26" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="M26" s="61">
+        <f>P22-P24</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="71"/>
+      <c r="O26" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="P26" s="49">
+        <f>P23-P25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="I27" s="91" t="s">
+        <v>36</v>
+      </c>
+      <c r="J27" s="93" t="s">
+        <v>35</v>
+      </c>
+      <c r="K27" s="94"/>
+      <c r="L27" s="93" t="s">
+        <v>34</v>
+      </c>
+      <c r="M27" s="94"/>
+      <c r="N27" s="93" t="s">
+        <v>33</v>
+      </c>
+      <c r="O27" s="94"/>
+      <c r="P27" s="89" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="52"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I28" s="92"/>
+      <c r="J28" s="95"/>
+      <c r="K28" s="96"/>
+      <c r="L28" s="95"/>
+      <c r="M28" s="96"/>
+      <c r="N28" s="95"/>
+      <c r="O28" s="96"/>
+      <c r="P28" s="90"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="21"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="21"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="53"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="21"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="54"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="54"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="54"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="52"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="5"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" s="52"/>
+      <c r="G37" s="52"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="5"/>
       <c r="M37" s="19"/>
       <c r="N37" s="19"/>
       <c r="O37" s="19"/>
       <c r="P37" s="5"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="4"/>
+      <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="6"/>
+      <c r="F38" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="G38" s="53"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
@@ -2928,14 +3310,14 @@
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
     </row>
-    <row r="39" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="7"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="9"/>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
       <c r="I39" s="12"/>
       <c r="J39" s="12"/>
       <c r="K39" s="12"/>
@@ -3008,7 +3390,64 @@
       <c r="P43" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="73">
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:K28"/>
+    <mergeCell ref="L27:M28"/>
+    <mergeCell ref="N27:O28"/>
+    <mergeCell ref="I19:M19"/>
+    <mergeCell ref="I20:M20"/>
+    <mergeCell ref="I21:M21"/>
+    <mergeCell ref="I22:N23"/>
+    <mergeCell ref="I24:N25"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="I7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:M5"/>
     <mergeCell ref="I8:M8"/>
     <mergeCell ref="I26:K26"/>
     <mergeCell ref="M26:N26"/>
@@ -3025,25 +3464,6 @@
     <mergeCell ref="M15:N15"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="K16:L16"/>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="I7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="I3:P3"/>
-    <mergeCell ref="I4:P4"/>
-    <mergeCell ref="I5:P5"/>
-    <mergeCell ref="P27:P28"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:K28"/>
-    <mergeCell ref="L27:M28"/>
-    <mergeCell ref="N27:O28"/>
-    <mergeCell ref="I19:M19"/>
-    <mergeCell ref="I20:M20"/>
-    <mergeCell ref="I21:M21"/>
-    <mergeCell ref="I22:N23"/>
-    <mergeCell ref="I24:N25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="84" orientation="landscape" r:id="rId1"/>

--- a/CORE/files/excel/slp.xlsx
+++ b/CORE/files/excel/slp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\apoteke-app\CORE\files\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E6B2E1-D3FB-467B-BC0C-FE1DA8CBCC74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D227246A-E8B3-499B-89CB-BB67FD7CDEAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{98093512-ABB9-4A42-BAEA-5361E452C139}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{98093512-ABB9-4A42-BAEA-5361E452C139}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -727,7 +727,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -735,9 +735,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -745,9 +742,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -765,9 +759,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -775,9 +766,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -822,7 +810,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -848,66 +835,109 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -920,9 +950,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -959,6 +986,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1019,43 +1052,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1373,10 +1369,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P81"/>
+  <dimension ref="A1:P58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15:L15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13:P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1386,78 +1382,88 @@
     <col min="9" max="9" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-      <c r="I1" s="63" t="s">
+    <row r="1" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5"/>
+      <c r="B1" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="5"/>
+      <c r="I1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="109" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="6"/>
-      <c r="I2" s="53" t="s">
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+    </row>
+    <row r="2" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="51"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="I2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="6"/>
+    <row r="3" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
       <c r="I3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
+    <row r="4" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="I4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
       <c r="L4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1467,752 +1473,482 @@
       <c r="P4" s="5"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
+      <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="6"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
+      <c r="G5" s="5"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
       <c r="L5" s="5"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="11"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="8"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
+      <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
+      <c r="E6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
     </row>
     <row r="7" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4"/>
+      <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6"/>
-      <c r="I7" s="64" t="s">
+      <c r="F7" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="49"/>
+      <c r="I7" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="64"/>
-      <c r="N7" s="64"/>
-      <c r="O7" s="64"/>
-      <c r="P7" s="64"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="69"/>
+      <c r="P7" s="69"/>
     </row>
     <row r="8" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
+      <c r="A8" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="64"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="57"/>
+      <c r="A9" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="72"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="72"/>
+      <c r="P9" s="72"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6"/>
-      <c r="I10" s="58" t="s">
+      <c r="A10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="58"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="75"/>
+      <c r="N10" s="75"/>
+      <c r="O10" s="75"/>
+      <c r="P10" s="75"/>
+    </row>
+    <row r="11" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="6"/>
-      <c r="I11" s="59" t="s">
+      <c r="E11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="I11" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="59"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="59" t="s">
+      <c r="J11" s="67"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="N11" s="59"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="24" t="s">
+      <c r="N11" s="67"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
+    <row r="12" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="6"/>
-      <c r="I12" s="12" t="s">
+      <c r="F12" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="63"/>
+      <c r="I12" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="12" t="s">
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="M12" s="60" t="s">
+      <c r="M12" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="N12" s="60"/>
-      <c r="O12" s="60"/>
-      <c r="P12" s="60"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="6"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="66"/>
-      <c r="N13" s="66"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="66"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="6"/>
-      <c r="I14" s="12" t="s">
+      <c r="N12" s="67"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="67"/>
+    </row>
+    <row r="13" spans="1:16" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="64"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="73"/>
+      <c r="P13" s="73"/>
+    </row>
+    <row r="14" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="I14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="61"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="6"/>
-      <c r="I15" s="55" t="s">
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="66"/>
+    </row>
+    <row r="15" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="55"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="50" t="s">
+      <c r="J15" s="67"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="N15" s="62"/>
-      <c r="O15" s="62"/>
-      <c r="P15" s="50" t="s">
+      <c r="N15" s="66"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="43" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
+    <row r="16" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="6"/>
-      <c r="I16" s="55" t="s">
+      <c r="E16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="I16" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="61"/>
-      <c r="P16" s="61"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="66"/>
+      <c r="P16" s="66"/>
+    </row>
+    <row r="17" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="6"/>
-      <c r="I17" s="59" t="s">
+      <c r="F17" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="63"/>
+      <c r="I17" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="59"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="57"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="6"/>
-      <c r="I18" s="55" t="s">
+      <c r="J17" s="67"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
+    </row>
+    <row r="18" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="64"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="I18" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="55"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="56"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="74"/>
+      <c r="N18" s="74"/>
+      <c r="O18" s="74"/>
+      <c r="P18" s="74"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="6"/>
+      <c r="A19" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="6"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
+      <c r="A20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
+      <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="6"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="57"/>
-      <c r="P21" s="57"/>
+      <c r="G21" s="5"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="72"/>
+      <c r="O21" s="72"/>
+      <c r="P21" s="72"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
+      <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="6"/>
+      <c r="E22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
-      <c r="O22" s="23" t="s">
+      <c r="O22" s="18" t="s">
         <v>18</v>
       </c>
       <c r="P22" s="5"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
+      <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="6"/>
+      <c r="F23" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="63"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="O23" s="22" t="s">
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="O23" s="17" t="s">
         <v>19</v>
       </c>
       <c r="P23" s="5"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
+      <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="6"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
+      <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="6"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="5"/>
+      <c r="A25" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="64"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="6"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
+      <c r="A26" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="64"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="6"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
+      <c r="A27" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
+      <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="6"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
+      <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
+      <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="6"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
+      <c r="E29" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
+      <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="6"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="6"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="4"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="6"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-    </row>
-    <row r="33" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="6"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="20"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="6"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="20"/>
-      <c r="P34" s="20"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="4"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="6"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="4"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="6"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="4"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="6"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="19"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="4"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="110" t="s">
-        <v>52</v>
-      </c>
-      <c r="E38" s="110"/>
-      <c r="F38" s="110"/>
-      <c r="G38" s="111"/>
-    </row>
-    <row r="39" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="7"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="9"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="5"/>
-      <c r="B44" s="112"/>
-      <c r="C44" s="112"/>
-      <c r="D44" s="112"/>
-      <c r="E44" s="112"/>
-      <c r="F44" s="112"/>
-      <c r="G44" s="5"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45" s="5"/>
-      <c r="B45" s="112"/>
-      <c r="C45" s="112"/>
-      <c r="D45" s="112"/>
-      <c r="E45" s="112"/>
-      <c r="F45" s="112"/>
-      <c r="G45" s="5"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
+      <c r="F30" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="G30" s="63"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
@@ -2223,226 +1959,13 @@
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="5"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="5"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="5"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="5"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="5"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="5"/>
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="5"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="15"/>
-      <c r="E80" s="15"/>
-      <c r="F80" s="15"/>
-      <c r="G80" s="15"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="5"/>
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="5"/>
-    </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="B2:F3"/>
+  <mergeCells count="53">
+    <mergeCell ref="B1:F1"/>
     <mergeCell ref="I9:P9"/>
     <mergeCell ref="I13:P13"/>
     <mergeCell ref="J14:P14"/>
     <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="I7:P7"/>
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="K18:P18"/>
     <mergeCell ref="N21:P21"/>
@@ -2453,11 +1976,44 @@
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="M12:P12"/>
     <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="I7:P7"/>
     <mergeCell ref="M16:P16"/>
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="K17:P17"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="A26:G26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="86" orientation="landscape" r:id="rId1"/>
@@ -2471,8 +2027,8 @@
   </sheetPr>
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I21" sqref="I7:P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2486,766 +2042,702 @@
     <col min="16" max="16" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="I1" s="113" t="s">
+    <row r="1" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+      <c r="I1" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="113" t="s">
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="18"/>
-    </row>
-    <row r="2" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="5"/>
-      <c r="I2" s="84" t="s">
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="14"/>
+    </row>
+    <row r="2" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="6"/>
+      <c r="I2" s="97" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="5"/>
-      <c r="I3" s="12" t="s">
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
+    </row>
+    <row r="3" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="6"/>
+      <c r="I3" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="12" t="s">
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="O3" s="13"/>
-      <c r="P3" s="12" t="s">
+      <c r="O3" s="52"/>
+      <c r="P3" s="11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
+    <row r="4" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="I4" s="59" t="s">
+      <c r="G4" s="6"/>
+      <c r="I4" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="12" t="s">
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="O4" s="116"/>
-      <c r="P4" s="12" t="s">
+      <c r="O4" s="43"/>
+      <c r="P4" s="11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="I5" s="54" t="s">
+    <row r="5" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6"/>
+      <c r="I5" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="12" t="s">
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="O5" s="116"/>
-      <c r="P5" s="12" t="s">
+      <c r="O5" s="43"/>
+      <c r="P5" s="11" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" s="85" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+    </row>
+    <row r="7" spans="1:16" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6"/>
+      <c r="I7" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="86"/>
-      <c r="M7" s="86"/>
-      <c r="N7" s="86"/>
-      <c r="O7" s="87" t="s">
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="88"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
+      <c r="P7" s="101"/>
+    </row>
+    <row r="8" spans="1:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="I8" s="67" t="s">
+      <c r="G8" s="6"/>
+      <c r="I8" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="26" t="s">
+      <c r="J8" s="78"/>
+      <c r="K8" s="78"/>
+      <c r="L8" s="78"/>
+      <c r="M8" s="78"/>
+      <c r="N8" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="O8" s="31"/>
-      <c r="P8" s="44"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="37"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
+      <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="118"/>
-      <c r="K9" s="118"/>
-      <c r="L9" s="119"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="45"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="38"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
+      <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="53"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="118"/>
-      <c r="K10" s="118"/>
-      <c r="L10" s="119"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="25" t="s">
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="P10" s="46">
+      <c r="P10" s="39">
         <f>SUM(N9,N10,N11,N12,N13)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
+      <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="I11" s="117"/>
-      <c r="J11" s="118"/>
-      <c r="K11" s="118"/>
-      <c r="L11" s="119"/>
-      <c r="M11" s="120"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="45"/>
+      <c r="G11" s="6"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="38"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="121"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="25" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="81"/>
+      <c r="L12" s="82"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="P12" s="46">
+      <c r="P12" s="39">
         <f>SUM(N9,N10,N11,N12,N13)/2</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="121"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="46"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="73" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="39"/>
+    </row>
+    <row r="14" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6"/>
+      <c r="I14" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="J14" s="74"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="74"/>
-      <c r="M14" s="74"/>
-      <c r="N14" s="74"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="47"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="88"/>
+      <c r="M14" s="88"/>
+      <c r="N14" s="88"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="40"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="33" t="s">
+      <c r="G15" s="6"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="L15" s="34"/>
-      <c r="M15" s="81"/>
-      <c r="N15" s="81"/>
-      <c r="O15" s="35" t="s">
+      <c r="L15" s="28"/>
+      <c r="M15" s="94"/>
+      <c r="N15" s="94"/>
+      <c r="O15" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="P15" s="48"/>
+      <c r="P15" s="41"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="83" t="s">
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6"/>
+      <c r="I16" s="95"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="L16" s="83"/>
-      <c r="M16" s="77"/>
-      <c r="N16" s="77"/>
-      <c r="O16" s="36" t="s">
+      <c r="L16" s="96"/>
+      <c r="M16" s="90"/>
+      <c r="N16" s="90"/>
+      <c r="O16" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="P16" s="49"/>
+      <c r="P16" s="42"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="53"/>
-      <c r="I17" s="75" t="s">
+      <c r="F17" s="5"/>
+      <c r="G17" s="6"/>
+      <c r="I17" s="89" t="s">
         <v>29</v>
       </c>
       <c r="J17" s="76"/>
       <c r="K17" s="76"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="77"/>
-      <c r="N17" s="77"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="48"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
+      <c r="L17" s="90"/>
+      <c r="M17" s="90"/>
+      <c r="N17" s="90"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="41"/>
+    </row>
+    <row r="18" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="I18" s="78" t="s">
+      <c r="G18" s="6"/>
+      <c r="I18" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="J18" s="79"/>
-      <c r="K18" s="79"/>
-      <c r="L18" s="79"/>
-      <c r="M18" s="79"/>
-      <c r="N18" s="79"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="47"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="92"/>
+      <c r="L18" s="92"/>
+      <c r="M18" s="92"/>
+      <c r="N18" s="92"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="40"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="I19" s="97"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="98"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="39" t="s">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="6"/>
+      <c r="I19" s="112"/>
+      <c r="J19" s="90"/>
+      <c r="K19" s="90"/>
+      <c r="L19" s="90"/>
+      <c r="M19" s="113"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="P19" s="48">
+      <c r="P19" s="41">
         <f>SUM(N19:N21)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="I20" s="97"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="98"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="39" t="s">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="6"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="90"/>
+      <c r="K20" s="90"/>
+      <c r="L20" s="90"/>
+      <c r="M20" s="113"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="P20" s="49">
+      <c r="P20" s="42">
         <f>SUM(N19:N21)/2</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" s="97"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="77"/>
-      <c r="M21" s="98"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="48"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="6"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="90"/>
+      <c r="K21" s="90"/>
+      <c r="L21" s="90"/>
+      <c r="M21" s="113"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="41"/>
     </row>
     <row r="22" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
+      <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="I22" s="99" t="s">
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="46"/>
+      <c r="I22" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="J22" s="100"/>
-      <c r="K22" s="100"/>
-      <c r="L22" s="100"/>
-      <c r="M22" s="100"/>
-      <c r="N22" s="101"/>
-      <c r="O22" s="40" t="s">
+      <c r="J22" s="115"/>
+      <c r="K22" s="115"/>
+      <c r="L22" s="115"/>
+      <c r="M22" s="115"/>
+      <c r="N22" s="116"/>
+      <c r="O22" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="P22" s="49">
+      <c r="P22" s="42">
         <f>SUM(P10,P15,P19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
+      <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="I23" s="102"/>
-      <c r="J23" s="103"/>
-      <c r="K23" s="103"/>
-      <c r="L23" s="103"/>
-      <c r="M23" s="103"/>
-      <c r="N23" s="104"/>
-      <c r="O23" s="41" t="s">
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="6"/>
+      <c r="I23" s="117"/>
+      <c r="J23" s="118"/>
+      <c r="K23" s="118"/>
+      <c r="L23" s="118"/>
+      <c r="M23" s="118"/>
+      <c r="N23" s="119"/>
+      <c r="O23" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="P23" s="49">
+      <c r="P23" s="42">
         <f>SUM(P12,P16,P20)/2</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
+      <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="G24" s="53"/>
-      <c r="I24" s="105" t="s">
+      <c r="F24" s="53"/>
+      <c r="G24" s="55"/>
+      <c r="I24" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="J24" s="100"/>
-      <c r="K24" s="100"/>
-      <c r="L24" s="100"/>
-      <c r="M24" s="100"/>
-      <c r="N24" s="101"/>
-      <c r="O24" s="40" t="s">
+      <c r="J24" s="115"/>
+      <c r="K24" s="115"/>
+      <c r="L24" s="115"/>
+      <c r="M24" s="115"/>
+      <c r="N24" s="116"/>
+      <c r="O24" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="P24" s="49"/>
+      <c r="P24" s="42"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="I25" s="106"/>
-      <c r="J25" s="107"/>
-      <c r="K25" s="107"/>
-      <c r="L25" s="107"/>
-      <c r="M25" s="107"/>
-      <c r="N25" s="108"/>
-      <c r="O25" s="41" t="s">
+      <c r="A25" s="56"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="57"/>
+      <c r="I25" s="121"/>
+      <c r="J25" s="122"/>
+      <c r="K25" s="122"/>
+      <c r="L25" s="122"/>
+      <c r="M25" s="122"/>
+      <c r="N25" s="123"/>
+      <c r="O25" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="P25" s="49"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="54"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="I26" s="69" t="s">
+      <c r="P25" s="42"/>
+    </row>
+    <row r="26" spans="1:16" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="56"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="57"/>
+      <c r="I26" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="J26" s="70"/>
-      <c r="K26" s="70"/>
-      <c r="L26" s="43" t="s">
+      <c r="J26" s="80"/>
+      <c r="K26" s="80"/>
+      <c r="L26" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="M26" s="61">
+      <c r="M26" s="81">
         <f>P22-P24</f>
         <v>0</v>
       </c>
-      <c r="N26" s="71"/>
-      <c r="O26" s="42" t="s">
+      <c r="N26" s="82"/>
+      <c r="O26" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="P26" s="49">
+      <c r="P26" s="42">
         <f>P23-P25</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="I27" s="91" t="s">
+      <c r="A27" s="56"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="57"/>
+      <c r="I27" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="J27" s="93" t="s">
+      <c r="J27" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="K27" s="94"/>
-      <c r="L27" s="93" t="s">
+      <c r="K27" s="109"/>
+      <c r="L27" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="M27" s="94"/>
-      <c r="N27" s="93" t="s">
+      <c r="M27" s="109"/>
+      <c r="N27" s="108" t="s">
         <v>33</v>
       </c>
-      <c r="O27" s="94"/>
-      <c r="P27" s="89" t="s">
+      <c r="O27" s="109"/>
+      <c r="P27" s="104" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="52"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I28" s="92"/>
-      <c r="J28" s="95"/>
-      <c r="K28" s="96"/>
-      <c r="L28" s="95"/>
-      <c r="M28" s="96"/>
-      <c r="N28" s="95"/>
-      <c r="O28" s="96"/>
-      <c r="P28" s="90"/>
+      <c r="A28" s="58"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="60"/>
+      <c r="I28" s="107"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="111"/>
+      <c r="L28" s="110"/>
+      <c r="M28" s="111"/>
+      <c r="N28" s="110"/>
+      <c r="O28" s="111"/>
+      <c r="P28" s="105"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
       <c r="O29" s="5"/>
-      <c r="P29" s="21"/>
+      <c r="P29" s="16"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
       <c r="O30" s="5"/>
-      <c r="P30" s="21"/>
+      <c r="P30" s="16"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="G31" s="53"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
       <c r="O31" s="5"/>
-      <c r="P31" s="21"/>
+      <c r="P31" s="16"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="54"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="54"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="54"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" s="52"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
@@ -3256,39 +2748,37 @@
       <c r="P35" s="5"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
       <c r="L36" s="5"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
       <c r="P36" s="5"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F37" s="52"/>
-      <c r="G37" s="52"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
       <c r="L37" s="5"/>
-      <c r="M37" s="19"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="19"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
       <c r="P37" s="5"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
@@ -3297,9 +2787,7 @@
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
-      <c r="F38" s="53" t="s">
-        <v>45</v>
-      </c>
+      <c r="F38" s="53"/>
       <c r="G38" s="53"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
@@ -3318,66 +2806,66 @@
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
       <c r="L39" s="5"/>
-      <c r="M39" s="30"/>
-      <c r="N39" s="30"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="24"/>
       <c r="O39" s="5"/>
-      <c r="P39" s="30"/>
+      <c r="P39" s="24"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
       <c r="H40" s="5"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
       <c r="L40" s="5"/>
-      <c r="M40" s="30"/>
-      <c r="N40" s="30"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="24"/>
       <c r="O40" s="5"/>
-      <c r="P40" s="30"/>
+      <c r="P40" s="24"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A41" s="21"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
       <c r="L41" s="5"/>
-      <c r="M41" s="30"/>
-      <c r="N41" s="30"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="24"/>
       <c r="O41" s="5"/>
-      <c r="P41" s="30"/>
+      <c r="P41" s="24"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A42" s="21"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
       <c r="L42" s="5"/>
-      <c r="M42" s="30"/>
-      <c r="N42" s="30"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="24"/>
       <c r="O42" s="5"/>
-      <c r="P42" s="30"/>
+      <c r="P42" s="24"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I43" s="5"/>
@@ -3390,42 +2878,7 @@
       <c r="P43" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="73">
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
+  <mergeCells count="39">
     <mergeCell ref="P27:P28"/>
     <mergeCell ref="M16:N16"/>
     <mergeCell ref="I27:I28"/>
@@ -3437,17 +2890,19 @@
     <mergeCell ref="I21:M21"/>
     <mergeCell ref="I22:N23"/>
     <mergeCell ref="I24:N25"/>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="I7:N7"/>
-    <mergeCell ref="O7:P7"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="I4:K4"/>
     <mergeCell ref="L4:M4"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="I7:N7"/>
+    <mergeCell ref="O7:P7"/>
     <mergeCell ref="I5:K5"/>
     <mergeCell ref="L5:M5"/>
+    <mergeCell ref="D26:F26"/>
     <mergeCell ref="I8:M8"/>
     <mergeCell ref="I26:K26"/>
     <mergeCell ref="M26:N26"/>
@@ -3463,7 +2918,6 @@
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="M15:N15"/>
     <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="84" orientation="landscape" r:id="rId1"/>

--- a/CORE/files/excel/slp.xlsx
+++ b/CORE/files/excel/slp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\apoteke-app\CORE\files\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D227246A-E8B3-499B-89CB-BB67FD7CDEAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7C042F-AE62-4419-96B4-9D841F4B308D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{98093512-ABB9-4A42-BAEA-5361E452C139}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{98093512-ABB9-4A42-BAEA-5361E452C139}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="64">
   <si>
     <t>NALOG ZA SLUŽBENO PUTOVANJE</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>A) Troškovi prevoza</t>
-  </si>
-  <si>
-    <t>Ukupno</t>
   </si>
   <si>
     <t>Relacija</t>
@@ -210,6 +207,18 @@
   </si>
   <si>
     <t>C) Ostali izdaci (uz dokumentaciju)</t>
+  </si>
+  <si>
+    <t>Prevoz</t>
+  </si>
+  <si>
+    <t>dnevnice</t>
+  </si>
+  <si>
+    <t>ostali izdaci</t>
+  </si>
+  <si>
+    <t>UKUPNO</t>
   </si>
 </sst>
 </file>
@@ -727,7 +736,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -788,9 +797,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -803,7 +809,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -866,51 +871,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -950,9 +1042,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -968,89 +1057,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1371,7 +1388,7 @@
   </sheetPr>
   <dimension ref="A1:P58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I13" sqref="I13:P13"/>
     </sheetView>
   </sheetViews>
@@ -1384,62 +1401,62 @@
   <sheetData>
     <row r="1" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
-      <c r="B1" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
+      <c r="B1" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
       <c r="G1" s="5"/>
-      <c r="I1" s="68" t="s">
+      <c r="I1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
       <c r="M1" s="10"/>
       <c r="N1" s="10"/>
       <c r="O1" s="10"/>
       <c r="P1" s="10"/>
     </row>
     <row r="2" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="I2" s="63" t="s">
+      <c r="A2" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="49"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="I2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
     </row>
     <row r="3" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
+      <c r="A3" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
       <c r="I3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
@@ -1447,23 +1464,23 @@
     </row>
     <row r="4" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
       <c r="L4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1495,10 +1512,10 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
+        <v>45</v>
+      </c>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
@@ -1514,31 +1531,31 @@
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="49"/>
-      <c r="I7" s="69" t="s">
+      <c r="F7" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="47"/>
+      <c r="I7" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
-      <c r="O7" s="69"/>
-      <c r="P7" s="69"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="71"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="71"/>
     </row>
     <row r="8" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="64" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
+      <c r="A8" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="72"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
       <c r="I8" s="14"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
@@ -1549,48 +1566,48 @@
       <c r="P8" s="9"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="72"/>
-      <c r="N9" s="72"/>
-      <c r="O9" s="72"/>
-      <c r="P9" s="72"/>
+      <c r="A9" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="61"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
       <c r="G10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="75" t="s">
+      <c r="I10" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="75"/>
-      <c r="M10" s="75"/>
-      <c r="N10" s="75"/>
-      <c r="O10" s="75"/>
-      <c r="P10" s="75"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
     </row>
     <row r="11" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
@@ -1598,21 +1615,21 @@
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="I11" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="I11" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="67"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="67" t="s">
+      <c r="J11" s="64"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="N11" s="67"/>
-      <c r="O11" s="52"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="50"/>
       <c r="P11" s="12" t="s">
         <v>9</v>
       </c>
@@ -1623,92 +1640,92 @@
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="63" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="63"/>
-      <c r="I12" s="45" t="s">
+      <c r="F12" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="70"/>
+      <c r="I12" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
-      <c r="L12" s="45" t="s">
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="M12" s="67" t="s">
+      <c r="M12" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="N12" s="67"/>
-      <c r="O12" s="67"/>
-      <c r="P12" s="67"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="64"/>
     </row>
     <row r="13" spans="1:16" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="64"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="73"/>
-      <c r="P13" s="73"/>
+      <c r="A13" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="72"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="62"/>
     </row>
     <row r="14" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
+      <c r="A14" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="72"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
       <c r="I14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
-      <c r="O14" s="66"/>
-      <c r="P14" s="66"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
     </row>
     <row r="15" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
       <c r="G15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="67" t="s">
+      <c r="I15" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="67"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="43" t="s">
+      <c r="J15" s="64"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="N15" s="63"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="41" t="s">
         <v>37</v>
-      </c>
-      <c r="N15" s="66"/>
-      <c r="O15" s="66"/>
-      <c r="P15" s="43" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -1717,20 +1734,20 @@
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="I16" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="I16" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="66"/>
-      <c r="N16" s="66"/>
-      <c r="O16" s="66"/>
-      <c r="P16" s="66"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="63"/>
     </row>
     <row r="17" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
@@ -1738,52 +1755,52 @@
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="63" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="63"/>
-      <c r="I17" s="67" t="s">
+      <c r="F17" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="70"/>
+      <c r="I17" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="67"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="62"/>
-      <c r="N17" s="62"/>
-      <c r="O17" s="62"/>
-      <c r="P17" s="62"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="67"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="67"/>
     </row>
     <row r="18" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="64" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="64"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="I18" s="67" t="s">
+      <c r="A18" s="72" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="72"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="I18" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="67"/>
-      <c r="K18" s="74"/>
-      <c r="L18" s="74"/>
-      <c r="M18" s="74"/>
-      <c r="N18" s="74"/>
-      <c r="O18" s="74"/>
-      <c r="P18" s="74"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="65"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
+      <c r="A19" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="72"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="9"/>
@@ -1795,15 +1812,15 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
       <c r="G20" s="5" t="s">
         <v>5</v>
       </c>
@@ -1829,9 +1846,9 @@
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
-      <c r="N21" s="72"/>
-      <c r="O21" s="72"/>
-      <c r="P21" s="72"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="61"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
@@ -1839,10 +1856,10 @@
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
+        <v>45</v>
+      </c>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
@@ -1859,10 +1876,10 @@
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="63" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" s="63"/>
+      <c r="F23" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" s="70"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
@@ -1883,38 +1900,38 @@
       <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="64" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="64"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
+      <c r="A25" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="72"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="64"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
+      <c r="A26" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="72"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="67"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="62"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
       <c r="G27" s="5" t="s">
         <v>5</v>
       </c>
@@ -1934,10 +1951,10 @@
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
+        <v>45</v>
+      </c>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
@@ -1945,10 +1962,10 @@
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
-      <c r="F30" s="63" t="s">
-        <v>45</v>
-      </c>
-      <c r="G30" s="63"/>
+      <c r="F30" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="G30" s="70"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
@@ -1961,11 +1978,28 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="I9:P9"/>
-    <mergeCell ref="I13:P13"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E15:F15"/>
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="K18:P18"/>
     <mergeCell ref="N21:P21"/>
@@ -1976,44 +2010,27 @@
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="M12:P12"/>
     <mergeCell ref="I16:L16"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:P17"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="I9:P9"/>
+    <mergeCell ref="I13:P13"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="I15:J15"/>
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="I2:L2"/>
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="I7:P7"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:P17"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="N15:O15"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="A26:G26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="86" orientation="landscape" r:id="rId1"/>
@@ -2027,8 +2044,8 @@
   </sheetPr>
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I21" sqref="I7:P21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2050,61 +2067,61 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
-      <c r="I1" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
+      <c r="I1" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
       <c r="P1" s="14"/>
     </row>
     <row r="2" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
-      <c r="B2" s="71" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
+      <c r="B2" s="97" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
       <c r="G2" s="6"/>
-      <c r="I2" s="97" t="s">
-        <v>54</v>
-      </c>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
+      <c r="I2" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
     </row>
     <row r="3" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
       <c r="G3" s="6"/>
       <c r="I3" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
       <c r="N3" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="O3" s="52"/>
+        <v>56</v>
+      </c>
+      <c r="O3" s="50"/>
       <c r="P3" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -2115,19 +2132,19 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="6"/>
-      <c r="I4" s="67" t="s">
+      <c r="I4" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="O4" s="43"/>
+      <c r="O4" s="41"/>
       <c r="P4" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -2138,19 +2155,19 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="6"/>
-      <c r="I5" s="67" t="s">
+      <c r="I5" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="O5" s="43"/>
+      <c r="O5" s="41"/>
       <c r="P5" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2178,18 +2195,18 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="6"/>
-      <c r="I7" s="98" t="s">
+      <c r="I7" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
-      <c r="N7" s="99"/>
-      <c r="O7" s="100" t="s">
-        <v>21</v>
-      </c>
-      <c r="P7" s="101"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
+      <c r="N7" s="100"/>
+      <c r="O7" s="101" t="s">
+        <v>63</v>
+      </c>
+      <c r="P7" s="102"/>
     </row>
     <row r="8" spans="1:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
@@ -2199,18 +2216,18 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="6"/>
-      <c r="I8" s="77" t="s">
+      <c r="I8" s="104" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
+      <c r="N8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="78"/>
-      <c r="K8" s="78"/>
-      <c r="L8" s="78"/>
-      <c r="M8" s="78"/>
-      <c r="N8" s="20" t="s">
-        <v>23</v>
-      </c>
       <c r="O8" s="25"/>
-      <c r="P8" s="37"/>
+      <c r="P8" s="35"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
@@ -2220,14 +2237,14 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="85"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="112"/>
       <c r="M9" s="22"/>
       <c r="N9" s="20"/>
       <c r="O9" s="19"/>
-      <c r="P9" s="38"/>
+      <c r="P9" s="36"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
@@ -2237,16 +2254,16 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="6"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="85"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="112"/>
       <c r="M10" s="22"/>
       <c r="N10" s="20"/>
       <c r="O10" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="P10" s="39">
+        <v>23</v>
+      </c>
+      <c r="P10" s="37">
         <f>SUM(N9,N10,N11,N12,N13)</f>
         <v>0</v>
       </c>
@@ -2259,14 +2276,14 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="6"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="84"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="47"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="112"/>
+      <c r="M11" s="45"/>
       <c r="N11" s="21"/>
       <c r="O11" s="19"/>
-      <c r="P11" s="38"/>
+      <c r="P11" s="36"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
@@ -2276,16 +2293,16 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="81"/>
-      <c r="L12" s="82"/>
-      <c r="M12" s="48"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="108"/>
+      <c r="K12" s="108"/>
+      <c r="L12" s="109"/>
+      <c r="M12" s="46"/>
       <c r="N12" s="7"/>
       <c r="O12" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P12" s="39">
+        <v>24</v>
+      </c>
+      <c r="P12" s="37">
         <f>SUM(N9,N10,N11,N12,N13)/2</f>
         <v>0</v>
       </c>
@@ -2298,14 +2315,16 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="6"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="81"/>
-      <c r="L13" s="82"/>
-      <c r="M13" s="48"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="108"/>
+      <c r="K13" s="108"/>
+      <c r="L13" s="109"/>
+      <c r="M13" s="46"/>
       <c r="N13" s="7"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="39"/>
+      <c r="O13" s="123" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" s="122"/>
     </row>
     <row r="14" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
@@ -2315,16 +2334,16 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="6"/>
-      <c r="I14" s="87" t="s">
-        <v>26</v>
-      </c>
-      <c r="J14" s="88"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="88"/>
-      <c r="M14" s="88"/>
-      <c r="N14" s="88"/>
+      <c r="I14" s="114" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="115"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="115"/>
+      <c r="M14" s="115"/>
+      <c r="N14" s="115"/>
       <c r="O14" s="25"/>
-      <c r="P14" s="40"/>
+      <c r="P14" s="38"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
@@ -2334,18 +2353,18 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="6"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="L15" s="28"/>
-      <c r="M15" s="94"/>
-      <c r="N15" s="94"/>
-      <c r="O15" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="P15" s="41"/>
+      <c r="I15" s="119"/>
+      <c r="J15" s="120"/>
+      <c r="K15" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" s="27"/>
+      <c r="M15" s="120"/>
+      <c r="N15" s="120"/>
+      <c r="O15" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="P15" s="39"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
@@ -2355,18 +2374,18 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="6"/>
-      <c r="I16" s="95"/>
-      <c r="J16" s="66"/>
+      <c r="I16" s="121"/>
+      <c r="J16" s="63"/>
       <c r="K16" s="96" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L16" s="96"/>
-      <c r="M16" s="90"/>
-      <c r="N16" s="90"/>
-      <c r="O16" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="P16" s="42"/>
+      <c r="M16" s="75"/>
+      <c r="N16" s="75"/>
+      <c r="O16" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="P16" s="40"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
@@ -2376,16 +2395,18 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="6"/>
-      <c r="I17" s="89" t="s">
-        <v>29</v>
-      </c>
-      <c r="J17" s="76"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="90"/>
-      <c r="M17" s="90"/>
-      <c r="N17" s="90"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="41"/>
+      <c r="I17" s="116" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="75"/>
+      <c r="M17" s="75"/>
+      <c r="N17" s="75"/>
+      <c r="O17" s="124" t="s">
+        <v>61</v>
+      </c>
+      <c r="P17" s="125"/>
     </row>
     <row r="18" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
@@ -2395,16 +2416,16 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="6"/>
-      <c r="I18" s="91" t="s">
-        <v>60</v>
-      </c>
-      <c r="J18" s="92"/>
-      <c r="K18" s="92"/>
-      <c r="L18" s="92"/>
-      <c r="M18" s="92"/>
-      <c r="N18" s="92"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="40"/>
+      <c r="I18" s="117" t="s">
+        <v>59</v>
+      </c>
+      <c r="J18" s="118"/>
+      <c r="K18" s="118"/>
+      <c r="L18" s="118"/>
+      <c r="M18" s="118"/>
+      <c r="N18" s="118"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="38"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
@@ -2414,16 +2435,16 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="6"/>
-      <c r="I19" s="112"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="90"/>
-      <c r="L19" s="90"/>
-      <c r="M19" s="113"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="P19" s="41">
+      <c r="I19" s="82"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="83"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="P19" s="39">
         <f>SUM(N19:N21)</f>
         <v>0</v>
       </c>
@@ -2436,16 +2457,16 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="6"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="90"/>
-      <c r="K20" s="90"/>
-      <c r="L20" s="90"/>
-      <c r="M20" s="113"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="P20" s="42">
+      <c r="I20" s="82"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="83"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="P20" s="40">
         <f>SUM(N19:N21)/2</f>
         <v>0</v>
       </c>
@@ -2458,14 +2479,16 @@
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="6"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="113"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="41"/>
+      <c r="I21" s="82"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="83"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="124" t="s">
+        <v>62</v>
+      </c>
+      <c r="P21" s="125"/>
     </row>
     <row r="22" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
@@ -2474,19 +2497,19 @@
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="46"/>
-      <c r="I22" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="J22" s="115"/>
-      <c r="K22" s="115"/>
-      <c r="L22" s="115"/>
-      <c r="M22" s="115"/>
-      <c r="N22" s="116"/>
-      <c r="O22" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="P22" s="42">
+      <c r="G22" s="44"/>
+      <c r="I22" s="84" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" s="85"/>
+      <c r="K22" s="85"/>
+      <c r="L22" s="85"/>
+      <c r="M22" s="85"/>
+      <c r="N22" s="86"/>
+      <c r="O22" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="P22" s="40">
         <f>SUM(P10,P15,P19)</f>
         <v>0</v>
       </c>
@@ -2499,16 +2522,16 @@
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="6"/>
-      <c r="I23" s="117"/>
-      <c r="J23" s="118"/>
-      <c r="K23" s="118"/>
-      <c r="L23" s="118"/>
-      <c r="M23" s="118"/>
-      <c r="N23" s="119"/>
-      <c r="O23" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="P23" s="42">
+      <c r="I23" s="87"/>
+      <c r="J23" s="88"/>
+      <c r="K23" s="88"/>
+      <c r="L23" s="88"/>
+      <c r="M23" s="88"/>
+      <c r="N23" s="89"/>
+      <c r="O23" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="P23" s="40">
         <f>SUM(P12,P16,P20)/2</f>
         <v>0</v>
       </c>
@@ -2519,114 +2542,114 @@
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="55"/>
-      <c r="I24" s="120" t="s">
-        <v>39</v>
-      </c>
-      <c r="J24" s="115"/>
-      <c r="K24" s="115"/>
-      <c r="L24" s="115"/>
-      <c r="M24" s="115"/>
-      <c r="N24" s="116"/>
-      <c r="O24" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="P24" s="42"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="53"/>
+      <c r="I24" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="J24" s="85"/>
+      <c r="K24" s="85"/>
+      <c r="L24" s="85"/>
+      <c r="M24" s="85"/>
+      <c r="N24" s="86"/>
+      <c r="O24" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="P24" s="40"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="56"/>
+      <c r="A25" s="54"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
-      <c r="G25" s="57"/>
-      <c r="I25" s="121"/>
-      <c r="J25" s="122"/>
-      <c r="K25" s="122"/>
-      <c r="L25" s="122"/>
-      <c r="M25" s="122"/>
-      <c r="N25" s="123"/>
-      <c r="O25" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="P25" s="42"/>
+      <c r="G25" s="55"/>
+      <c r="I25" s="91"/>
+      <c r="J25" s="92"/>
+      <c r="K25" s="92"/>
+      <c r="L25" s="92"/>
+      <c r="M25" s="92"/>
+      <c r="N25" s="93"/>
+      <c r="O25" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="P25" s="40"/>
     </row>
     <row r="26" spans="1:16" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="56"/>
+      <c r="A26" s="54"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
-      <c r="D26" s="70" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="57"/>
-      <c r="I26" s="79" t="s">
-        <v>31</v>
-      </c>
-      <c r="J26" s="80"/>
-      <c r="K26" s="80"/>
-      <c r="L26" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="M26" s="81">
+      <c r="D26" s="103" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="103"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="55"/>
+      <c r="I26" s="106" t="s">
+        <v>30</v>
+      </c>
+      <c r="J26" s="107"/>
+      <c r="K26" s="107"/>
+      <c r="L26" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="M26" s="108">
         <f>P22-P24</f>
         <v>0</v>
       </c>
-      <c r="N26" s="82"/>
-      <c r="O26" s="61" t="s">
-        <v>25</v>
-      </c>
-      <c r="P26" s="42">
+      <c r="N26" s="109"/>
+      <c r="O26" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="P26" s="40">
         <f>P23-P25</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="56"/>
+      <c r="A27" s="54"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
-      <c r="G27" s="57"/>
-      <c r="I27" s="106" t="s">
-        <v>36</v>
-      </c>
-      <c r="J27" s="108" t="s">
+      <c r="G27" s="55"/>
+      <c r="I27" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="K27" s="109"/>
-      <c r="L27" s="108" t="s">
+      <c r="J27" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="M27" s="109"/>
-      <c r="N27" s="108" t="s">
+      <c r="K27" s="79"/>
+      <c r="L27" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="O27" s="109"/>
-      <c r="P27" s="104" t="s">
+      <c r="M27" s="79"/>
+      <c r="N27" s="78" t="s">
         <v>32</v>
       </c>
+      <c r="O27" s="79"/>
+      <c r="P27" s="73" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="28" spans="1:16" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="58"/>
-      <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="60"/>
-      <c r="I28" s="107"/>
-      <c r="J28" s="110"/>
-      <c r="K28" s="111"/>
-      <c r="L28" s="110"/>
-      <c r="M28" s="111"/>
-      <c r="N28" s="110"/>
-      <c r="O28" s="111"/>
-      <c r="P28" s="105"/>
+      <c r="A28" s="56"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="58"/>
+      <c r="I28" s="77"/>
+      <c r="J28" s="80"/>
+      <c r="K28" s="81"/>
+      <c r="L28" s="80"/>
+      <c r="M28" s="81"/>
+      <c r="N28" s="80"/>
+      <c r="O28" s="81"/>
+      <c r="P28" s="74"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
@@ -2787,8 +2810,8 @@
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="53"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
@@ -2878,30 +2901,10 @@
       <c r="P43" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="P27:P28"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:K28"/>
-    <mergeCell ref="L27:M28"/>
-    <mergeCell ref="N27:O28"/>
-    <mergeCell ref="I19:M19"/>
-    <mergeCell ref="I20:M20"/>
-    <mergeCell ref="I21:M21"/>
-    <mergeCell ref="I22:N23"/>
-    <mergeCell ref="I24:N25"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="I7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:M5"/>
+  <mergeCells count="42">
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O21:P21"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="I8:M8"/>
     <mergeCell ref="I26:K26"/>
@@ -2918,6 +2921,29 @@
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="M15:N15"/>
     <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="I7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:K28"/>
+    <mergeCell ref="L27:M28"/>
+    <mergeCell ref="N27:O28"/>
+    <mergeCell ref="I19:M19"/>
+    <mergeCell ref="I20:M20"/>
+    <mergeCell ref="I21:M21"/>
+    <mergeCell ref="I22:N23"/>
+    <mergeCell ref="I24:N25"/>
+    <mergeCell ref="K16:L16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="84" orientation="landscape" r:id="rId1"/>

--- a/CORE/files/excel/slp.xlsx
+++ b/CORE/files/excel/slp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\apoteke-app\CORE\files\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128A9B7F-54EB-40C8-AEDE-0311B581B548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12217B2-B163-4E2D-B2B1-59DD098A9458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{98093512-ABB9-4A42-BAEA-5361E452C139}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{98093512-ABB9-4A42-BAEA-5361E452C139}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -674,7 +674,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -798,43 +798,175 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -849,39 +981,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -891,9 +990,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -908,96 +1004,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1318,7 +1324,7 @@
   </sheetPr>
   <dimension ref="A1:P59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -1337,12 +1343,12 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="I1" s="60" t="s">
+      <c r="I1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
@@ -1350,20 +1356,20 @@
     </row>
     <row r="2" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
       <c r="G2" s="1"/>
-      <c r="I2" s="49" t="s">
+      <c r="I2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -1371,18 +1377,18 @@
     </row>
     <row r="3" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
       <c r="G3" s="1"/>
       <c r="I3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -1399,8 +1405,8 @@
       <c r="I4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
       <c r="L4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1451,16 +1457,16 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="I7" s="61" t="s">
+      <c r="I7" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="64"/>
     </row>
     <row r="8" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
@@ -1504,16 +1510,16 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="I10" s="55" t="s">
+      <c r="I10" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="55"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
     </row>
     <row r="11" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
@@ -1523,16 +1529,16 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="I11" s="52" t="s">
+      <c r="I11" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="52"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="52" t="s">
+      <c r="J11" s="57"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="N11" s="52"/>
+      <c r="N11" s="57"/>
       <c r="O11" s="41"/>
       <c r="P11" s="7" t="s">
         <v>9</v>
@@ -1549,17 +1555,17 @@
       <c r="I12" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
       <c r="L12" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="M12" s="52" t="s">
+      <c r="M12" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="N12" s="52"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
     </row>
     <row r="13" spans="1:16" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
@@ -1569,14 +1575,14 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="55"/>
     </row>
     <row r="14" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
@@ -1589,13 +1595,13 @@
       <c r="I14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="57"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
     </row>
     <row r="15" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
@@ -1605,17 +1611,17 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="I15" s="52" t="s">
+      <c r="I15" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="52"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
       <c r="M15" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
       <c r="P15" s="36" t="s">
         <v>37</v>
       </c>
@@ -1628,16 +1634,16 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="I16" s="52" t="s">
+      <c r="I16" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
     </row>
     <row r="17" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
@@ -1647,16 +1653,16 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="I17" s="52" t="s">
+      <c r="I17" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="52"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="50"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="60"/>
+      <c r="P17" s="60"/>
     </row>
     <row r="18" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
@@ -1666,16 +1672,16 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="I18" s="52" t="s">
+      <c r="I18" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="52"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="53"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="58"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
@@ -1786,11 +1792,11 @@
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="66" t="s">
+      <c r="D26" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
       <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
@@ -1830,270 +1836,275 @@
       <c r="G30" s="42"/>
     </row>
     <row r="32" spans="1:16" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="115"/>
-      <c r="B32" s="115"/>
-      <c r="C32" s="115"/>
-      <c r="D32" s="115"/>
-      <c r="E32" s="115"/>
-      <c r="F32" s="115"/>
-      <c r="G32" s="115"/>
+      <c r="A32" s="49"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
     </row>
     <row r="33" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="115"/>
-      <c r="B33" s="115"/>
-      <c r="C33" s="115"/>
-      <c r="D33" s="115"/>
-      <c r="E33" s="115"/>
-      <c r="F33" s="115"/>
-      <c r="G33" s="115"/>
+      <c r="A33" s="49"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="115"/>
-      <c r="B34" s="115"/>
-      <c r="C34" s="115"/>
-      <c r="D34" s="115"/>
-      <c r="E34" s="115"/>
-      <c r="F34" s="115"/>
-      <c r="G34" s="115"/>
+      <c r="A34" s="49"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="115"/>
-      <c r="B35" s="115"/>
-      <c r="C35" s="115"/>
-      <c r="D35" s="115"/>
-      <c r="E35" s="115"/>
-      <c r="F35" s="115"/>
-      <c r="G35" s="115"/>
+      <c r="A35" s="49"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="115"/>
-      <c r="B36" s="115"/>
-      <c r="C36" s="115"/>
-      <c r="D36" s="115"/>
-      <c r="E36" s="115"/>
-      <c r="F36" s="115"/>
-      <c r="G36" s="115"/>
+      <c r="A36" s="49"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="115"/>
-      <c r="B37" s="115"/>
-      <c r="C37" s="115"/>
-      <c r="D37" s="115"/>
-      <c r="E37" s="115"/>
-      <c r="F37" s="115"/>
-      <c r="G37" s="115"/>
+      <c r="A37" s="49"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="115"/>
-      <c r="B38" s="115"/>
-      <c r="C38" s="115"/>
-      <c r="D38" s="115"/>
-      <c r="E38" s="115"/>
-      <c r="F38" s="115"/>
-      <c r="G38" s="115"/>
+      <c r="A38" s="49"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="115"/>
-      <c r="B39" s="115"/>
-      <c r="C39" s="115"/>
-      <c r="D39" s="115"/>
-      <c r="E39" s="115"/>
-      <c r="F39" s="115"/>
-      <c r="G39" s="115"/>
+      <c r="A39" s="49"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="115"/>
-      <c r="B40" s="115"/>
-      <c r="C40" s="115"/>
-      <c r="D40" s="115"/>
-      <c r="E40" s="115"/>
-      <c r="F40" s="115"/>
-      <c r="G40" s="115"/>
+      <c r="A40" s="49"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="115"/>
-      <c r="B41" s="115"/>
-      <c r="C41" s="115"/>
-      <c r="D41" s="115"/>
-      <c r="E41" s="115"/>
-      <c r="F41" s="115"/>
-      <c r="G41" s="115"/>
+      <c r="A41" s="49"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="49"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="115"/>
-      <c r="B42" s="115"/>
-      <c r="C42" s="115"/>
-      <c r="D42" s="115"/>
-      <c r="E42" s="115"/>
-      <c r="F42" s="115"/>
-      <c r="G42" s="115"/>
+      <c r="A42" s="49"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="115"/>
-      <c r="B43" s="115"/>
-      <c r="C43" s="115"/>
-      <c r="D43" s="115"/>
-      <c r="E43" s="115"/>
-      <c r="F43" s="115"/>
-      <c r="G43" s="115"/>
+      <c r="A43" s="49"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="115"/>
-      <c r="B44" s="115"/>
-      <c r="C44" s="115"/>
-      <c r="D44" s="115"/>
-      <c r="E44" s="115"/>
-      <c r="F44" s="115"/>
-      <c r="G44" s="115"/>
+      <c r="A44" s="49"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="115"/>
-      <c r="B45" s="115"/>
-      <c r="C45" s="115"/>
-      <c r="D45" s="115"/>
-      <c r="E45" s="115"/>
-      <c r="F45" s="115"/>
-      <c r="G45" s="115"/>
+      <c r="A45" s="49"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="49"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="115"/>
-      <c r="B46" s="115"/>
-      <c r="C46" s="115"/>
-      <c r="D46" s="115"/>
-      <c r="E46" s="115"/>
-      <c r="F46" s="115"/>
-      <c r="G46" s="115"/>
+      <c r="A46" s="49"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="49"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="115"/>
-      <c r="B47" s="115"/>
-      <c r="C47" s="115"/>
-      <c r="D47" s="115"/>
-      <c r="E47" s="115"/>
-      <c r="F47" s="115"/>
-      <c r="G47" s="115"/>
+      <c r="A47" s="49"/>
+      <c r="B47" s="49"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="49"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="115"/>
-      <c r="B48" s="115"/>
-      <c r="C48" s="115"/>
-      <c r="D48" s="115"/>
-      <c r="E48" s="115"/>
-      <c r="F48" s="115"/>
-      <c r="G48" s="115"/>
+      <c r="A48" s="49"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="49"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="115"/>
-      <c r="B49" s="115"/>
-      <c r="C49" s="115"/>
-      <c r="D49" s="115"/>
-      <c r="E49" s="115"/>
-      <c r="F49" s="115"/>
-      <c r="G49" s="115"/>
+      <c r="A49" s="49"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="115"/>
-      <c r="B50" s="115"/>
-      <c r="C50" s="115"/>
-      <c r="D50" s="115"/>
-      <c r="E50" s="115"/>
-      <c r="F50" s="115"/>
-      <c r="G50" s="115"/>
+      <c r="A50" s="49"/>
+      <c r="B50" s="49"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="49"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="115"/>
-      <c r="B51" s="115"/>
-      <c r="C51" s="115"/>
-      <c r="D51" s="115"/>
-      <c r="E51" s="115"/>
-      <c r="F51" s="115"/>
-      <c r="G51" s="115"/>
+      <c r="A51" s="49"/>
+      <c r="B51" s="49"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="49"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="115"/>
-      <c r="B52" s="115"/>
-      <c r="C52" s="115"/>
-      <c r="D52" s="115"/>
-      <c r="E52" s="115"/>
-      <c r="F52" s="115"/>
-      <c r="G52" s="115"/>
+      <c r="A52" s="49"/>
+      <c r="B52" s="49"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="49"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="115"/>
-      <c r="B53" s="115"/>
-      <c r="C53" s="115"/>
-      <c r="D53" s="115"/>
-      <c r="E53" s="115"/>
-      <c r="F53" s="115"/>
-      <c r="G53" s="115"/>
+      <c r="A53" s="49"/>
+      <c r="B53" s="49"/>
+      <c r="C53" s="49"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="49"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="115"/>
-      <c r="B54" s="115"/>
-      <c r="C54" s="115"/>
-      <c r="D54" s="115"/>
-      <c r="E54" s="115"/>
-      <c r="F54" s="115"/>
-      <c r="G54" s="115"/>
+      <c r="A54" s="49"/>
+      <c r="B54" s="49"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="49"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="49"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="115"/>
-      <c r="B55" s="115"/>
-      <c r="C55" s="115"/>
-      <c r="D55" s="115"/>
-      <c r="E55" s="115"/>
-      <c r="F55" s="115"/>
-      <c r="G55" s="115"/>
+      <c r="A55" s="49"/>
+      <c r="B55" s="49"/>
+      <c r="C55" s="49"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="49"/>
+      <c r="F55" s="49"/>
+      <c r="G55" s="49"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="115"/>
-      <c r="B56" s="115"/>
-      <c r="C56" s="115"/>
-      <c r="D56" s="115"/>
-      <c r="E56" s="115"/>
-      <c r="F56" s="115"/>
-      <c r="G56" s="115"/>
+      <c r="A56" s="49"/>
+      <c r="B56" s="49"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="49"/>
+      <c r="G56" s="49"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="115"/>
-      <c r="B57" s="115"/>
-      <c r="C57" s="115"/>
-      <c r="D57" s="115"/>
-      <c r="E57" s="115"/>
-      <c r="F57" s="115"/>
-      <c r="G57" s="115"/>
+      <c r="A57" s="49"/>
+      <c r="B57" s="49"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="49"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="115"/>
-      <c r="B58" s="115"/>
-      <c r="C58" s="115"/>
-      <c r="D58" s="115"/>
-      <c r="E58" s="115"/>
-      <c r="F58" s="115"/>
-      <c r="G58" s="115"/>
+      <c r="A58" s="49"/>
+      <c r="B58" s="49"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="49"/>
+      <c r="E58" s="49"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="49"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="115"/>
-      <c r="B59" s="115"/>
-      <c r="C59" s="115"/>
-      <c r="D59" s="115"/>
-      <c r="E59" s="115"/>
-      <c r="F59" s="115"/>
-      <c r="G59" s="115"/>
+      <c r="A59" s="49"/>
+      <c r="B59" s="49"/>
+      <c r="C59" s="49"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="49"/>
+      <c r="G59" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:P17"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="I7:P7"/>
     <mergeCell ref="B2:F3"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="I9:P9"/>
     <mergeCell ref="I13:P13"/>
     <mergeCell ref="J14:P14"/>
     <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="I7:P7"/>
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="K18:P18"/>
     <mergeCell ref="N21:P21"/>
@@ -2104,11 +2115,6 @@
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="M12:P12"/>
     <mergeCell ref="I16:L16"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:P17"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="N15:O15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="86" orientation="landscape" r:id="rId1"/>
@@ -2122,8 +2128,8 @@
   </sheetPr>
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:G26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2139,25 +2145,25 @@
   <sheetData>
     <row r="1" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
       <c r="G1" s="1"/>
       <c r="I1" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
       <c r="L1" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
       <c r="P1" s="9"/>
     </row>
     <row r="2" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -2170,16 +2176,16 @@
       <c r="E2" s="45"/>
       <c r="F2" s="45"/>
       <c r="G2" s="45"/>
-      <c r="I2" s="87" t="s">
+      <c r="I2" s="101" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="101"/>
+      <c r="O2" s="101"/>
+      <c r="P2" s="101"/>
     </row>
     <row r="3" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
@@ -2196,8 +2202,8 @@
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
       <c r="N3" s="6" t="s">
         <v>56</v>
       </c>
@@ -2220,13 +2226,13 @@
       <c r="G4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="52" t="s">
+      <c r="I4" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
       <c r="N4" s="6" t="s">
         <v>56</v>
       </c>
@@ -2243,13 +2249,13 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="I5" s="52" t="s">
+      <c r="I5" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
       <c r="N5" s="6" t="s">
         <v>58</v>
       </c>
@@ -2287,36 +2293,36 @@
         <v>44</v>
       </c>
       <c r="G7" s="46"/>
-      <c r="I7" s="88" t="s">
+      <c r="I7" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="89"/>
-      <c r="K7" s="89"/>
-      <c r="L7" s="89"/>
-      <c r="M7" s="89"/>
-      <c r="N7" s="89"/>
-      <c r="O7" s="90" t="s">
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
+      <c r="N7" s="103"/>
+      <c r="O7" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="P7" s="91"/>
+      <c r="P7" s="105"/>
     </row>
     <row r="8" spans="1:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="I8" s="67" t="s">
+      <c r="B8" s="65"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="I8" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="96"/>
+      <c r="L8" s="96"/>
+      <c r="M8" s="96"/>
       <c r="N8" s="15" t="s">
         <v>22</v>
       </c>
@@ -2324,19 +2330,19 @@
       <c r="P8" s="30"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="75"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="98"/>
+      <c r="K9" s="98"/>
+      <c r="L9" s="99"/>
       <c r="M9" s="17"/>
       <c r="N9" s="15"/>
       <c r="O9" s="14"/>
@@ -2346,20 +2352,20 @@
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
       <c r="D10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
       <c r="G10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="73"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="75"/>
+      <c r="I10" s="97"/>
+      <c r="J10" s="98"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="99"/>
       <c r="M10" s="17"/>
       <c r="N10" s="15"/>
       <c r="O10" s="14" t="s">
@@ -2378,12 +2384,12 @@
       <c r="E11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="75"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="98"/>
+      <c r="K11" s="98"/>
+      <c r="L11" s="99"/>
       <c r="M11" s="39"/>
       <c r="N11" s="16"/>
       <c r="O11" s="14"/>
@@ -2395,63 +2401,63 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="49" t="s">
+      <c r="F12" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="49"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="72"/>
+      <c r="G12" s="63"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="91"/>
+      <c r="L12" s="92"/>
       <c r="M12" s="40"/>
       <c r="N12" s="2"/>
       <c r="O12" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="P12" s="32">
-        <f>SUM(N9,N10,N11,N12,N13)/2</f>
+      <c r="P12" s="50">
+        <f>P10/1.95</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="72"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="92"/>
       <c r="M13" s="40"/>
       <c r="N13" s="2"/>
-      <c r="O13" s="62" t="s">
+      <c r="O13" s="106" t="s">
         <v>60</v>
       </c>
-      <c r="P13" s="63"/>
+      <c r="P13" s="107"/>
     </row>
     <row r="14" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="I14" s="77" t="s">
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="I14" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="78"/>
-      <c r="K14" s="78"/>
-      <c r="L14" s="78"/>
-      <c r="M14" s="78"/>
-      <c r="N14" s="78"/>
+      <c r="J14" s="111"/>
+      <c r="K14" s="111"/>
+      <c r="L14" s="111"/>
+      <c r="M14" s="111"/>
+      <c r="N14" s="111"/>
       <c r="O14" s="20"/>
       <c r="P14" s="33"/>
     </row>
@@ -2459,24 +2465,24 @@
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
       <c r="D15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
       <c r="G15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="83"/>
-      <c r="J15" s="84"/>
+      <c r="I15" s="115"/>
+      <c r="J15" s="116"/>
       <c r="K15" s="21" t="s">
         <v>26</v>
       </c>
       <c r="L15" s="22"/>
-      <c r="M15" s="84"/>
-      <c r="N15" s="84"/>
+      <c r="M15" s="116"/>
+      <c r="N15" s="116"/>
       <c r="O15" s="23" t="s">
         <v>23</v>
       </c>
@@ -2490,16 +2496,16 @@
       <c r="E16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="I16" s="85"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="114" t="s">
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="L16" s="114"/>
-      <c r="M16" s="80"/>
-      <c r="N16" s="80"/>
+      <c r="L16" s="88"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="69"/>
       <c r="O16" s="24" t="s">
         <v>24</v>
       </c>
@@ -2511,59 +2517,59 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="49" t="s">
+      <c r="F17" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="49"/>
-      <c r="I17" s="79" t="s">
+      <c r="G17" s="63"/>
+      <c r="I17" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="80"/>
-      <c r="N17" s="80"/>
-      <c r="O17" s="64" t="s">
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="108" t="s">
         <v>61</v>
       </c>
-      <c r="P17" s="65"/>
+      <c r="P17" s="109"/>
     </row>
     <row r="18" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="51" t="s">
+      <c r="A18" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="51"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="I18" s="81" t="s">
+      <c r="B18" s="65"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="I18" s="113" t="s">
         <v>59</v>
       </c>
-      <c r="J18" s="82"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="82"/>
-      <c r="M18" s="82"/>
-      <c r="N18" s="82"/>
+      <c r="J18" s="114"/>
+      <c r="K18" s="114"/>
+      <c r="L18" s="114"/>
+      <c r="M18" s="114"/>
+      <c r="N18" s="114"/>
       <c r="O18" s="25"/>
       <c r="P18" s="33"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="51" t="s">
+      <c r="A19" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="I19" s="102"/>
-      <c r="J19" s="80"/>
-      <c r="K19" s="80"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="103"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="77"/>
       <c r="N19" s="37"/>
       <c r="O19" s="26" t="s">
         <v>23</v>
@@ -2577,27 +2583,27 @@
       <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
       <c r="D20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
       <c r="G20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I20" s="102"/>
-      <c r="J20" s="80"/>
-      <c r="K20" s="80"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="103"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="77"/>
       <c r="N20" s="37"/>
       <c r="O20" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="P20" s="35">
-        <f>SUM(N19:N21)/2</f>
+      <c r="P20" s="51">
+        <f>P19/1.95</f>
         <v>0</v>
       </c>
     </row>
@@ -2609,16 +2615,16 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="I21" s="102"/>
-      <c r="J21" s="80"/>
-      <c r="K21" s="80"/>
-      <c r="L21" s="80"/>
-      <c r="M21" s="103"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="77"/>
       <c r="N21" s="37"/>
-      <c r="O21" s="64" t="s">
+      <c r="O21" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="P21" s="65"/>
+      <c r="P21" s="109"/>
     </row>
     <row r="22" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
@@ -2628,16 +2634,16 @@
       <c r="E22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="I22" s="104" t="s">
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="I22" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="J22" s="105"/>
-      <c r="K22" s="105"/>
-      <c r="L22" s="105"/>
-      <c r="M22" s="105"/>
-      <c r="N22" s="106"/>
+      <c r="J22" s="79"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="79"/>
+      <c r="M22" s="79"/>
+      <c r="N22" s="80"/>
       <c r="O22" s="27" t="s">
         <v>23</v>
       </c>
@@ -2652,21 +2658,21 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="49" t="s">
+      <c r="F23" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="G23" s="49"/>
-      <c r="I23" s="107"/>
-      <c r="J23" s="108"/>
-      <c r="K23" s="108"/>
-      <c r="L23" s="108"/>
-      <c r="M23" s="108"/>
-      <c r="N23" s="109"/>
+      <c r="G23" s="63"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="82"/>
+      <c r="K23" s="82"/>
+      <c r="L23" s="82"/>
+      <c r="M23" s="82"/>
+      <c r="N23" s="83"/>
       <c r="O23" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="P23" s="35">
-        <f>SUM(P12,P16,P20)/2</f>
+      <c r="P23" s="51">
+        <f>SUM(P12,P16,P20)</f>
         <v>0</v>
       </c>
     </row>
@@ -2678,67 +2684,67 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="I24" s="110" t="s">
+      <c r="I24" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="J24" s="105"/>
-      <c r="K24" s="105"/>
-      <c r="L24" s="105"/>
-      <c r="M24" s="105"/>
-      <c r="N24" s="106"/>
+      <c r="J24" s="79"/>
+      <c r="K24" s="79"/>
+      <c r="L24" s="79"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="80"/>
       <c r="O24" s="27" t="s">
         <v>23</v>
       </c>
       <c r="P24" s="35"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="I25" s="111"/>
-      <c r="J25" s="112"/>
-      <c r="K25" s="112"/>
-      <c r="L25" s="112"/>
-      <c r="M25" s="112"/>
-      <c r="N25" s="113"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="I25" s="85"/>
+      <c r="J25" s="86"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="86"/>
+      <c r="M25" s="86"/>
+      <c r="N25" s="87"/>
       <c r="O25" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="P25" s="35"/>
+      <c r="P25" s="51"/>
     </row>
     <row r="26" spans="1:16" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="51" t="s">
+      <c r="A26" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="I26" s="69" t="s">
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="I26" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="J26" s="70"/>
-      <c r="K26" s="70"/>
+      <c r="J26" s="90"/>
+      <c r="K26" s="90"/>
       <c r="L26" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="M26" s="71">
+      <c r="M26" s="91">
         <f>P22-P24</f>
         <v>0</v>
       </c>
-      <c r="N26" s="72"/>
+      <c r="N26" s="92"/>
       <c r="O26" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="P26" s="35">
+      <c r="P26" s="51">
         <f>P23-P25</f>
         <v>0</v>
       </c>
@@ -2747,32 +2753,32 @@
       <c r="A27" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="60"/>
       <c r="D27" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
       <c r="G27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I27" s="96" t="s">
+      <c r="I27" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="J27" s="98" t="s">
+      <c r="J27" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="K27" s="99"/>
-      <c r="L27" s="98" t="s">
+      <c r="K27" s="73"/>
+      <c r="L27" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="M27" s="99"/>
-      <c r="N27" s="98" t="s">
+      <c r="M27" s="73"/>
+      <c r="N27" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="O27" s="99"/>
-      <c r="P27" s="94" t="s">
+      <c r="O27" s="73"/>
+      <c r="P27" s="67" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2784,14 +2790,14 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="I28" s="97"/>
-      <c r="J28" s="100"/>
-      <c r="K28" s="101"/>
-      <c r="L28" s="100"/>
-      <c r="M28" s="101"/>
-      <c r="N28" s="100"/>
-      <c r="O28" s="101"/>
-      <c r="P28" s="95"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="74"/>
+      <c r="K28" s="75"/>
+      <c r="L28" s="74"/>
+      <c r="M28" s="75"/>
+      <c r="N28" s="74"/>
+      <c r="O28" s="75"/>
+      <c r="P28" s="68"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
@@ -2801,8 +2807,8 @@
       <c r="E29" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -2818,10 +2824,10 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="49" t="s">
+      <c r="F30" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="G30" s="49"/>
+      <c r="G30" s="63"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
@@ -3048,28 +3054,42 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:N14"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="I18:N18"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="I7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="I2:P2"/>
     <mergeCell ref="P27:P28"/>
     <mergeCell ref="M16:N16"/>
     <mergeCell ref="I27:I28"/>
@@ -3082,41 +3102,27 @@
     <mergeCell ref="I22:N23"/>
     <mergeCell ref="I24:N25"/>
     <mergeCell ref="K16:L16"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="I7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="I8:M8"/>
     <mergeCell ref="I26:K26"/>
     <mergeCell ref="M26:N26"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:N14"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="I18:N18"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E27:F27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="84" orientation="landscape" r:id="rId1"/>

--- a/CORE/files/excel/slp.xlsx
+++ b/CORE/files/excel/slp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\apoteke-app\CORE\files\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12217B2-B163-4E2D-B2B1-59DD098A9458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F43DFB-DC8F-47E7-9646-5FA25C1F32FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{98093512-ABB9-4A42-BAEA-5361E452C139}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="63">
   <si>
     <t>NALOG ZA SLUŽBENO PUTOVANJE</t>
   </si>
@@ -161,9 +161,6 @@
   </si>
   <si>
     <t>(potpis ovlaštenog lica)</t>
-  </si>
-  <si>
-    <t>M.P</t>
   </si>
   <si>
     <t>2. Potvrđuje se da je</t>
@@ -308,7 +305,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -670,11 +667,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -789,66 +806,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -903,12 +931,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -930,12 +952,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -951,22 +991,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -975,35 +1027,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1325,7 +1350,7 @@
   <dimension ref="A1:P59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="M16" sqref="M16:P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1343,12 +1368,12 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="I1" s="62" t="s">
+      <c r="I1" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
@@ -1356,20 +1381,20 @@
     </row>
     <row r="2" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
+      <c r="B2" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
       <c r="G2" s="1"/>
-      <c r="I2" s="63" t="s">
+      <c r="I2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -1377,18 +1402,18 @@
     </row>
     <row r="3" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
       <c r="G3" s="1"/>
       <c r="I3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -1405,8 +1430,8 @@
       <c r="I4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
       <c r="L4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1457,16 +1482,16 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="I7" s="64" t="s">
+      <c r="I7" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="64"/>
-      <c r="N7" s="64"/>
-      <c r="O7" s="64"/>
-      <c r="P7" s="64"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
     </row>
     <row r="8" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
@@ -1493,14 +1518,14 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
@@ -1510,16 +1535,16 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="I10" s="59" t="s">
+      <c r="I10" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="61"/>
     </row>
     <row r="11" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
@@ -1529,16 +1554,16 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="I11" s="57" t="s">
+      <c r="I11" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="57"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="57" t="s">
+      <c r="J11" s="59"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="N11" s="57"/>
+      <c r="N11" s="59"/>
       <c r="O11" s="41"/>
       <c r="P11" s="7" t="s">
         <v>9</v>
@@ -1555,17 +1580,17 @@
       <c r="I12" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
       <c r="L12" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="M12" s="57" t="s">
+      <c r="M12" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="57"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="59"/>
     </row>
     <row r="13" spans="1:16" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
@@ -1575,14 +1600,14 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="55"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="57"/>
     </row>
     <row r="14" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
@@ -1595,13 +1620,13 @@
       <c r="I14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="56"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="58"/>
     </row>
     <row r="15" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
@@ -1611,18 +1636,18 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="I15" s="57" t="s">
+      <c r="I15" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="57"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="36" t="s">
+      <c r="J15" s="59"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="N15" s="56"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="36" t="s">
+      <c r="N15" s="68"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="53" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1634,16 +1659,16 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="I16" s="57" t="s">
+      <c r="I16" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="56"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="67"/>
     </row>
     <row r="17" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
@@ -1653,16 +1678,16 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="I17" s="57" t="s">
+      <c r="I17" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="57"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="60"/>
-      <c r="M17" s="60"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="60"/>
-      <c r="P17" s="60"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="55"/>
     </row>
     <row r="18" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
@@ -1672,16 +1697,16 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="I18" s="57" t="s">
+      <c r="I18" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="57"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="58"/>
-      <c r="P18" s="58"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="60"/>
+      <c r="P18" s="60"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
@@ -1730,9 +1755,9 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="54"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="56"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
@@ -1741,7 +1766,7 @@
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="48"/>
+      <c r="G22" s="47"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -1792,11 +1817,11 @@
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
+      <c r="D26" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
       <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
@@ -1823,8 +1848,7 @@
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
+      <c r="G29" s="6"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
@@ -1833,259 +1857,259 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
+      <c r="G30" s="6"/>
     </row>
     <row r="32" spans="1:16" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="49"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
+      <c r="A32" s="48"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
     </row>
     <row r="33" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="49"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
+      <c r="A33" s="48"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="49"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
+      <c r="A34" s="48"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="49"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
+      <c r="A35" s="48"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="49"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
+      <c r="A36" s="48"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="49"/>
-      <c r="B37" s="49"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
+      <c r="A37" s="48"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="49"/>
-      <c r="B38" s="49"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
+      <c r="A38" s="48"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="49"/>
-      <c r="B39" s="49"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="49"/>
+      <c r="A39" s="48"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="49"/>
-      <c r="B40" s="49"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
+      <c r="A40" s="48"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="49"/>
-      <c r="B41" s="49"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49"/>
+      <c r="A41" s="48"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="49"/>
-      <c r="B42" s="49"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
+      <c r="A42" s="48"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="49"/>
-      <c r="B43" s="49"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
+      <c r="A43" s="48"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="48"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="49"/>
-      <c r="B44" s="49"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
+      <c r="A44" s="48"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="48"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="49"/>
-      <c r="B45" s="49"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="49"/>
+      <c r="A45" s="48"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="48"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="49"/>
-      <c r="B46" s="49"/>
-      <c r="C46" s="49"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="49"/>
+      <c r="A46" s="48"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="48"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="49"/>
-      <c r="B47" s="49"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="49"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="49"/>
-      <c r="G47" s="49"/>
+      <c r="A47" s="48"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="48"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="49"/>
-      <c r="B48" s="49"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="49"/>
+      <c r="A48" s="48"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="48"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="49"/>
-      <c r="B49" s="49"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="49"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="49"/>
+      <c r="A49" s="48"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="48"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="49"/>
-      <c r="B50" s="49"/>
-      <c r="C50" s="49"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="49"/>
-      <c r="G50" s="49"/>
+      <c r="A50" s="48"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="48"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="49"/>
-      <c r="B51" s="49"/>
-      <c r="C51" s="49"/>
-      <c r="D51" s="49"/>
-      <c r="E51" s="49"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="49"/>
+      <c r="A51" s="48"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="48"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="49"/>
-      <c r="B52" s="49"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="49"/>
-      <c r="E52" s="49"/>
-      <c r="F52" s="49"/>
-      <c r="G52" s="49"/>
+      <c r="A52" s="48"/>
+      <c r="B52" s="48"/>
+      <c r="C52" s="48"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="48"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="49"/>
-      <c r="B53" s="49"/>
-      <c r="C53" s="49"/>
-      <c r="D53" s="49"/>
-      <c r="E53" s="49"/>
-      <c r="F53" s="49"/>
-      <c r="G53" s="49"/>
+      <c r="A53" s="48"/>
+      <c r="B53" s="48"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="48"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="49"/>
-      <c r="B54" s="49"/>
-      <c r="C54" s="49"/>
-      <c r="D54" s="49"/>
-      <c r="E54" s="49"/>
-      <c r="F54" s="49"/>
-      <c r="G54" s="49"/>
+      <c r="A54" s="48"/>
+      <c r="B54" s="48"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="48"/>
+      <c r="E54" s="48"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="48"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="49"/>
-      <c r="B55" s="49"/>
-      <c r="C55" s="49"/>
-      <c r="D55" s="49"/>
-      <c r="E55" s="49"/>
-      <c r="F55" s="49"/>
-      <c r="G55" s="49"/>
+      <c r="A55" s="48"/>
+      <c r="B55" s="48"/>
+      <c r="C55" s="48"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="48"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="48"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="49"/>
-      <c r="B56" s="49"/>
-      <c r="C56" s="49"/>
-      <c r="D56" s="49"/>
-      <c r="E56" s="49"/>
-      <c r="F56" s="49"/>
-      <c r="G56" s="49"/>
+      <c r="A56" s="48"/>
+      <c r="B56" s="48"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="48"/>
+      <c r="E56" s="48"/>
+      <c r="F56" s="48"/>
+      <c r="G56" s="48"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="49"/>
-      <c r="B57" s="49"/>
-      <c r="C57" s="49"/>
-      <c r="D57" s="49"/>
-      <c r="E57" s="49"/>
-      <c r="F57" s="49"/>
-      <c r="G57" s="49"/>
+      <c r="A57" s="48"/>
+      <c r="B57" s="48"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="48"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="48"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="49"/>
-      <c r="B58" s="49"/>
-      <c r="C58" s="49"/>
-      <c r="D58" s="49"/>
-      <c r="E58" s="49"/>
-      <c r="F58" s="49"/>
-      <c r="G58" s="49"/>
+      <c r="A58" s="48"/>
+      <c r="B58" s="48"/>
+      <c r="C58" s="48"/>
+      <c r="D58" s="48"/>
+      <c r="E58" s="48"/>
+      <c r="F58" s="48"/>
+      <c r="G58" s="48"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="49"/>
-      <c r="B59" s="49"/>
-      <c r="C59" s="49"/>
-      <c r="D59" s="49"/>
-      <c r="E59" s="49"/>
-      <c r="F59" s="49"/>
-      <c r="G59" s="49"/>
+      <c r="A59" s="48"/>
+      <c r="B59" s="48"/>
+      <c r="C59" s="48"/>
+      <c r="D59" s="48"/>
+      <c r="E59" s="48"/>
+      <c r="F59" s="48"/>
+      <c r="G59" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="26">
@@ -2128,8 +2152,8 @@
   </sheetPr>
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22:N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2145,67 +2169,67 @@
   <sheetData>
     <row r="1" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
       <c r="G1" s="1"/>
       <c r="I1" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
+        <v>51</v>
+      </c>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
       <c r="L1" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
       <c r="P1" s="9"/>
     </row>
     <row r="2" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="47"/>
+      <c r="B2" s="46"/>
       <c r="C2" s="45"/>
       <c r="D2" s="45"/>
       <c r="E2" s="45"/>
       <c r="F2" s="45"/>
       <c r="G2" s="45"/>
-      <c r="I2" s="101" t="s">
+      <c r="I2" s="99" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
+    </row>
+    <row r="3" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="I3" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-    </row>
-    <row r="3" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="I3" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
       <c r="N3" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O3" s="41"/>
       <c r="P3" s="6" t="s">
@@ -2226,15 +2250,15 @@
       <c r="G4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="57" t="s">
+      <c r="I4" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="O4" s="36"/>
       <c r="P4" s="6" t="s">
@@ -2249,15 +2273,15 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="I5" s="57" t="s">
+      <c r="I5" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="O5" s="36"/>
       <c r="P5" s="6" t="s">
@@ -2270,7 +2294,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="F6" s="45"/>
       <c r="G6" s="45"/>
@@ -2284,45 +2308,45 @@
       <c r="P6" s="4"/>
     </row>
     <row r="7" spans="1:16" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="46" t="s">
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="46"/>
-      <c r="I7" s="102" t="s">
+      <c r="G7" s="52"/>
+      <c r="I7" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
-      <c r="N7" s="103"/>
-      <c r="O7" s="104" t="s">
-        <v>63</v>
-      </c>
-      <c r="P7" s="105"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
+      <c r="N7" s="101"/>
+      <c r="O7" s="102" t="s">
+        <v>62</v>
+      </c>
+      <c r="P7" s="103"/>
     </row>
     <row r="8" spans="1:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="I8" s="95" t="s">
+      <c r="A8" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="70"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="I8" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="96"/>
-      <c r="K8" s="96"/>
-      <c r="L8" s="96"/>
-      <c r="M8" s="96"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
       <c r="N8" s="15" t="s">
         <v>22</v>
       </c>
@@ -2330,19 +2354,19 @@
       <c r="P8" s="30"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="I9" s="97"/>
-      <c r="J9" s="98"/>
-      <c r="K9" s="98"/>
-      <c r="L9" s="99"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="107"/>
+      <c r="K9" s="107"/>
+      <c r="L9" s="108"/>
       <c r="M9" s="17"/>
       <c r="N9" s="15"/>
       <c r="O9" s="14"/>
@@ -2352,20 +2376,20 @@
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
       <c r="D10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
       <c r="G10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="97"/>
-      <c r="J10" s="98"/>
-      <c r="K10" s="98"/>
-      <c r="L10" s="99"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="107"/>
+      <c r="K10" s="107"/>
+      <c r="L10" s="108"/>
       <c r="M10" s="17"/>
       <c r="N10" s="15"/>
       <c r="O10" s="14" t="s">
@@ -2382,14 +2406,14 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="I11" s="97"/>
-      <c r="J11" s="98"/>
-      <c r="K11" s="98"/>
-      <c r="L11" s="99"/>
+        <v>19</v>
+      </c>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="107"/>
+      <c r="K11" s="107"/>
+      <c r="L11" s="108"/>
       <c r="M11" s="39"/>
       <c r="N11" s="16"/>
       <c r="O11" s="14"/>
@@ -2401,63 +2425,63 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="63" t="s">
+      <c r="F12" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="63"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="91"/>
-      <c r="K12" s="91"/>
-      <c r="L12" s="92"/>
+      <c r="G12" s="65"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="95"/>
       <c r="M12" s="40"/>
       <c r="N12" s="2"/>
       <c r="O12" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="P12" s="50">
+      <c r="P12" s="49">
         <f>P10/1.95</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="65"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="I13" s="100"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
-      <c r="L13" s="92"/>
+      <c r="A13" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="70"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="I13" s="96"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="95"/>
       <c r="M13" s="40"/>
       <c r="N13" s="2"/>
-      <c r="O13" s="106" t="s">
-        <v>60</v>
-      </c>
-      <c r="P13" s="107"/>
+      <c r="O13" s="119" t="s">
+        <v>59</v>
+      </c>
+      <c r="P13" s="120"/>
     </row>
     <row r="14" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="I14" s="110" t="s">
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="I14" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="111"/>
-      <c r="K14" s="111"/>
-      <c r="L14" s="111"/>
-      <c r="M14" s="111"/>
-      <c r="N14" s="111"/>
+      <c r="J14" s="112"/>
+      <c r="K14" s="112"/>
+      <c r="L14" s="112"/>
+      <c r="M14" s="112"/>
+      <c r="N14" s="112"/>
       <c r="O14" s="20"/>
       <c r="P14" s="33"/>
     </row>
@@ -2465,24 +2489,24 @@
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
       <c r="D15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
       <c r="G15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="115"/>
-      <c r="J15" s="116"/>
+      <c r="I15" s="116"/>
+      <c r="J15" s="117"/>
       <c r="K15" s="21" t="s">
         <v>26</v>
       </c>
       <c r="L15" s="22"/>
-      <c r="M15" s="116"/>
-      <c r="N15" s="116"/>
+      <c r="M15" s="117"/>
+      <c r="N15" s="117"/>
       <c r="O15" s="23" t="s">
         <v>23</v>
       </c>
@@ -2494,82 +2518,82 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="I16" s="117"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="88" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="I16" s="118"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="L16" s="88"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="69"/>
+      <c r="L16" s="91"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="74"/>
       <c r="O16" s="24" t="s">
         <v>24</v>
       </c>
       <c r="P16" s="35"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="63" t="s">
+      <c r="A17" s="51"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="63"/>
-      <c r="I17" s="112" t="s">
+      <c r="G17" s="69"/>
+      <c r="I17" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="69"/>
-      <c r="O17" s="108" t="s">
-        <v>61</v>
-      </c>
-      <c r="P17" s="109"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="74"/>
+      <c r="N17" s="74"/>
+      <c r="O17" s="109" t="s">
+        <v>60</v>
+      </c>
+      <c r="P17" s="110"/>
     </row>
     <row r="18" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="65" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="65"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="I18" s="113" t="s">
-        <v>59</v>
-      </c>
-      <c r="J18" s="114"/>
-      <c r="K18" s="114"/>
-      <c r="L18" s="114"/>
-      <c r="M18" s="114"/>
-      <c r="N18" s="114"/>
+      <c r="A18" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="70"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="I18" s="114" t="s">
+        <v>58</v>
+      </c>
+      <c r="J18" s="115"/>
+      <c r="K18" s="115"/>
+      <c r="L18" s="115"/>
+      <c r="M18" s="115"/>
+      <c r="N18" s="115"/>
       <c r="O18" s="25"/>
       <c r="P18" s="33"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="65" t="s">
+      <c r="A19" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="77"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="82"/>
       <c r="N19" s="37"/>
       <c r="O19" s="26" t="s">
         <v>23</v>
@@ -2583,26 +2607,26 @@
       <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
       <c r="D20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
       <c r="G20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I20" s="76"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="77"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="82"/>
       <c r="N20" s="37"/>
       <c r="O20" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="P20" s="51">
+      <c r="P20" s="50">
         <f>P19/1.95</f>
         <v>0</v>
       </c>
@@ -2615,16 +2639,16 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="I21" s="76"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="69"/>
-      <c r="M21" s="77"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="74"/>
+      <c r="L21" s="74"/>
+      <c r="M21" s="82"/>
       <c r="N21" s="37"/>
-      <c r="O21" s="108" t="s">
-        <v>62</v>
-      </c>
-      <c r="P21" s="109"/>
+      <c r="O21" s="109" t="s">
+        <v>61</v>
+      </c>
+      <c r="P21" s="110"/>
     </row>
     <row r="22" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
@@ -2632,18 +2656,18 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
-      <c r="I22" s="78" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="I22" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="J22" s="79"/>
-      <c r="K22" s="79"/>
-      <c r="L22" s="79"/>
-      <c r="M22" s="79"/>
-      <c r="N22" s="80"/>
+      <c r="J22" s="84"/>
+      <c r="K22" s="84"/>
+      <c r="L22" s="84"/>
+      <c r="M22" s="84"/>
+      <c r="N22" s="85"/>
       <c r="O22" s="27" t="s">
         <v>23</v>
       </c>
@@ -2653,25 +2677,25 @@
       </c>
     </row>
     <row r="23" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="63" t="s">
+      <c r="A23" s="51"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="G23" s="63"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="82"/>
-      <c r="L23" s="82"/>
-      <c r="M23" s="82"/>
-      <c r="N23" s="83"/>
+      <c r="G23" s="69"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="87"/>
+      <c r="K23" s="87"/>
+      <c r="L23" s="87"/>
+      <c r="M23" s="87"/>
+      <c r="N23" s="88"/>
       <c r="O23" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="P23" s="51">
+      <c r="P23" s="50">
         <f>SUM(P12,P16,P20)</f>
         <v>0</v>
       </c>
@@ -2684,67 +2708,67 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="I24" s="84" t="s">
+      <c r="I24" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="J24" s="79"/>
-      <c r="K24" s="79"/>
-      <c r="L24" s="79"/>
-      <c r="M24" s="79"/>
-      <c r="N24" s="80"/>
+      <c r="J24" s="84"/>
+      <c r="K24" s="84"/>
+      <c r="L24" s="84"/>
+      <c r="M24" s="84"/>
+      <c r="N24" s="85"/>
       <c r="O24" s="27" t="s">
         <v>23</v>
       </c>
       <c r="P24" s="35"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="65" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="65"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="I25" s="85"/>
-      <c r="J25" s="86"/>
-      <c r="K25" s="86"/>
-      <c r="L25" s="86"/>
-      <c r="M25" s="86"/>
-      <c r="N25" s="87"/>
+      <c r="A25" s="70" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="70"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="I25" s="121"/>
+      <c r="J25" s="89"/>
+      <c r="K25" s="89"/>
+      <c r="L25" s="89"/>
+      <c r="M25" s="89"/>
+      <c r="N25" s="90"/>
       <c r="O25" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="P25" s="51"/>
+      <c r="P25" s="50"/>
     </row>
     <row r="26" spans="1:16" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="65" t="s">
+      <c r="A26" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="I26" s="89" t="s">
+      <c r="B26" s="70"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
+      <c r="I26" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="J26" s="90"/>
-      <c r="K26" s="90"/>
+      <c r="J26" s="93"/>
+      <c r="K26" s="93"/>
       <c r="L26" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="M26" s="91">
+      <c r="M26" s="94">
         <f>P22-P24</f>
         <v>0</v>
       </c>
-      <c r="N26" s="92"/>
+      <c r="N26" s="95"/>
       <c r="O26" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="P26" s="51">
+      <c r="P26" s="50">
         <f>P23-P25</f>
         <v>0</v>
       </c>
@@ -2753,32 +2777,32 @@
       <c r="A27" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="60"/>
-      <c r="C27" s="60"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
       <c r="D27" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
       <c r="G27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I27" s="70" t="s">
+      <c r="I27" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="J27" s="72" t="s">
+      <c r="J27" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="K27" s="73"/>
-      <c r="L27" s="72" t="s">
+      <c r="K27" s="78"/>
+      <c r="L27" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="M27" s="73"/>
-      <c r="N27" s="72" t="s">
+      <c r="M27" s="78"/>
+      <c r="N27" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="O27" s="73"/>
-      <c r="P27" s="67" t="s">
+      <c r="O27" s="78"/>
+      <c r="P27" s="72" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2790,14 +2814,14 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="I28" s="71"/>
-      <c r="J28" s="74"/>
-      <c r="K28" s="75"/>
-      <c r="L28" s="74"/>
-      <c r="M28" s="75"/>
-      <c r="N28" s="74"/>
-      <c r="O28" s="75"/>
-      <c r="P28" s="68"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="79"/>
+      <c r="K28" s="80"/>
+      <c r="L28" s="79"/>
+      <c r="M28" s="80"/>
+      <c r="N28" s="79"/>
+      <c r="O28" s="80"/>
+      <c r="P28" s="73"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
@@ -2805,10 +2829,10 @@
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
+        <v>19</v>
+      </c>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -2819,15 +2843,15 @@
       <c r="P29" s="11"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="63" t="s">
+      <c r="A30" s="51"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="G30" s="63"/>
+      <c r="G30" s="69"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
@@ -3059,7 +3083,7 @@
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="O13:P13"/>
     <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="C18:G18"/>
     <mergeCell ref="I13:L13"/>
     <mergeCell ref="I14:N14"/>
     <mergeCell ref="I17:K17"/>
@@ -3074,10 +3098,6 @@
     <mergeCell ref="A14:G14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="E15:F15"/>
-    <mergeCell ref="I7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:M5"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="I8:M8"/>
     <mergeCell ref="I9:L9"/>
@@ -3090,6 +3110,10 @@
     <mergeCell ref="I4:K4"/>
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="I2:P2"/>
+    <mergeCell ref="I7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:M5"/>
     <mergeCell ref="P27:P28"/>
     <mergeCell ref="M16:N16"/>
     <mergeCell ref="I27:I28"/>
@@ -3104,13 +3128,13 @@
     <mergeCell ref="K16:L16"/>
     <mergeCell ref="I26:K26"/>
     <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O21:P21"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C18:G18"/>
     <mergeCell ref="A19:G19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="E20:F20"/>

--- a/CORE/files/excel/slp.xlsx
+++ b/CORE/files/excel/slp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\apoteke-app\CORE\files\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F43DFB-DC8F-47E7-9646-5FA25C1F32FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675D8CA9-92A8-4266-9425-628765BF3BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{98093512-ABB9-4A42-BAEA-5361E452C139}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{98093512-ABB9-4A42-BAEA-5361E452C139}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="63">
   <si>
     <t>NALOG ZA SLUŽBENO PUTOVANJE</t>
   </si>
@@ -305,7 +305,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -561,19 +561,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -687,11 +674,107 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -774,19 +857,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -797,238 +870,266 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1349,8 +1450,8 @@
   </sheetPr>
   <dimension ref="A1:P59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16:P16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13:P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1368,12 +1469,12 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="I1" s="64" t="s">
+      <c r="I1" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
@@ -1389,12 +1490,12 @@
       <c r="E2" s="54"/>
       <c r="F2" s="54"/>
       <c r="G2" s="1"/>
-      <c r="I2" s="65" t="s">
+      <c r="I2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -1411,9 +1512,9 @@
       <c r="I3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -1430,8 +1531,8 @@
       <c r="I4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="104"/>
       <c r="L4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1482,16 +1583,16 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="I7" s="66" t="s">
+      <c r="I7" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="66"/>
-      <c r="P7" s="66"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
     </row>
     <row r="8" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
@@ -1518,14 +1619,14 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="56"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="105"/>
+      <c r="N9" s="105"/>
+      <c r="O9" s="105"/>
+      <c r="P9" s="105"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
@@ -1535,16 +1636,16 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="I10" s="61" t="s">
+      <c r="I10" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="61"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
     </row>
     <row r="11" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
@@ -1554,17 +1655,17 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="I11" s="59" t="s">
+      <c r="I11" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="59"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="59" t="s">
+      <c r="J11" s="50"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="N11" s="59"/>
-      <c r="O11" s="41"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="106"/>
       <c r="P11" s="7" t="s">
         <v>9</v>
       </c>
@@ -1577,20 +1678,20 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="I12" s="38" t="s">
+      <c r="I12" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="38" t="s">
+      <c r="J12" s="107"/>
+      <c r="K12" s="107"/>
+      <c r="L12" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="M12" s="59" t="s">
+      <c r="M12" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="N12" s="59"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
     </row>
     <row r="13" spans="1:16" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
@@ -1600,14 +1701,14 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="57"/>
+      <c r="I13" s="108"/>
+      <c r="J13" s="108"/>
+      <c r="K13" s="108"/>
+      <c r="L13" s="108"/>
+      <c r="M13" s="108"/>
+      <c r="N13" s="108"/>
+      <c r="O13" s="108"/>
+      <c r="P13" s="108"/>
     </row>
     <row r="14" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
@@ -1620,13 +1721,13 @@
       <c r="I14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="58"/>
+      <c r="J14" s="104"/>
+      <c r="K14" s="104"/>
+      <c r="L14" s="104"/>
+      <c r="M14" s="104"/>
+      <c r="N14" s="104"/>
+      <c r="O14" s="104"/>
+      <c r="P14" s="104"/>
     </row>
     <row r="15" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
@@ -1636,18 +1737,18 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="I15" s="59" t="s">
+      <c r="I15" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="59"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="53" t="s">
+      <c r="J15" s="50"/>
+      <c r="K15" s="104"/>
+      <c r="L15" s="104"/>
+      <c r="M15" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N15" s="68"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="53" t="s">
+      <c r="N15" s="104"/>
+      <c r="O15" s="104"/>
+      <c r="P15" s="6" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1659,16 +1760,16 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="I16" s="59" t="s">
+      <c r="I16" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="67"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
     </row>
     <row r="17" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
@@ -1678,16 +1779,16 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="I17" s="59" t="s">
+      <c r="I17" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="59"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="55"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="51"/>
     </row>
     <row r="18" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
@@ -1697,16 +1798,16 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="I18" s="59" t="s">
+      <c r="I18" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="59"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="60"/>
-      <c r="O18" s="60"/>
-      <c r="P18" s="60"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="55"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
@@ -1755,9 +1856,9 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
-      <c r="N21" s="56"/>
-      <c r="O21" s="56"/>
-      <c r="P21" s="56"/>
+      <c r="N21" s="105"/>
+      <c r="O21" s="105"/>
+      <c r="P21" s="105"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
@@ -1766,7 +1867,7 @@
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="47"/>
+      <c r="G22" s="40"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -1801,8 +1902,8 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
@@ -1817,11 +1918,11 @@
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="55" t="s">
+      <c r="D26" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
       <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
@@ -1856,273 +1957,263 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="42"/>
+      <c r="F30" s="37"/>
       <c r="G30" s="6"/>
     </row>
     <row r="32" spans="1:16" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="48"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
+      <c r="A32" s="41"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
     </row>
     <row r="33" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="48"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="48"/>
-      <c r="B34" s="48"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="48"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="48"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="48"/>
-      <c r="B36" s="48"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="48"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="48"/>
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="48"/>
-      <c r="B38" s="48"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="48"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="48"/>
-      <c r="B39" s="48"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="48"/>
-      <c r="B40" s="48"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="48"/>
+      <c r="A40" s="41"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="48"/>
-      <c r="B41" s="48"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="48"/>
+      <c r="A41" s="41"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="48"/>
-      <c r="B42" s="48"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="48"/>
+      <c r="A42" s="41"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="48"/>
-      <c r="B43" s="48"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="48"/>
+      <c r="A43" s="41"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="48"/>
-      <c r="B44" s="48"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="48"/>
+      <c r="A44" s="41"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="41"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="48"/>
-      <c r="B45" s="48"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="48"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="48"/>
+      <c r="A45" s="41"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="41"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="48"/>
-      <c r="B46" s="48"/>
-      <c r="C46" s="48"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="48"/>
+      <c r="A46" s="41"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="48"/>
-      <c r="B47" s="48"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="48"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="48"/>
+      <c r="A47" s="41"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="41"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="48"/>
-      <c r="B48" s="48"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
+      <c r="A48" s="41"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="48"/>
-      <c r="B49" s="48"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="48"/>
+      <c r="A49" s="41"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="48"/>
-      <c r="B50" s="48"/>
-      <c r="C50" s="48"/>
-      <c r="D50" s="48"/>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="48"/>
+      <c r="A50" s="41"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="41"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="48"/>
-      <c r="B51" s="48"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="48"/>
-      <c r="E51" s="48"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="48"/>
+      <c r="A51" s="41"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="48"/>
-      <c r="B52" s="48"/>
-      <c r="C52" s="48"/>
-      <c r="D52" s="48"/>
-      <c r="E52" s="48"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="48"/>
+      <c r="A52" s="41"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="41"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="48"/>
-      <c r="B53" s="48"/>
-      <c r="C53" s="48"/>
-      <c r="D53" s="48"/>
-      <c r="E53" s="48"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="48"/>
+      <c r="A53" s="41"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="48"/>
-      <c r="B54" s="48"/>
-      <c r="C54" s="48"/>
-      <c r="D54" s="48"/>
-      <c r="E54" s="48"/>
-      <c r="F54" s="48"/>
-      <c r="G54" s="48"/>
+      <c r="A54" s="41"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="41"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="48"/>
-      <c r="B55" s="48"/>
-      <c r="C55" s="48"/>
-      <c r="D55" s="48"/>
-      <c r="E55" s="48"/>
-      <c r="F55" s="48"/>
-      <c r="G55" s="48"/>
+      <c r="A55" s="41"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="41"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="48"/>
-      <c r="B56" s="48"/>
-      <c r="C56" s="48"/>
-      <c r="D56" s="48"/>
-      <c r="E56" s="48"/>
-      <c r="F56" s="48"/>
-      <c r="G56" s="48"/>
+      <c r="A56" s="41"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="41"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="48"/>
-      <c r="B57" s="48"/>
-      <c r="C57" s="48"/>
-      <c r="D57" s="48"/>
-      <c r="E57" s="48"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="48"/>
+      <c r="A57" s="41"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="41"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="48"/>
-      <c r="B58" s="48"/>
-      <c r="C58" s="48"/>
-      <c r="D58" s="48"/>
-      <c r="E58" s="48"/>
-      <c r="F58" s="48"/>
-      <c r="G58" s="48"/>
+      <c r="A58" s="41"/>
+      <c r="B58" s="41"/>
+      <c r="C58" s="41"/>
+      <c r="D58" s="41"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="41"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="48"/>
-      <c r="B59" s="48"/>
-      <c r="C59" s="48"/>
-      <c r="D59" s="48"/>
-      <c r="E59" s="48"/>
-      <c r="F59" s="48"/>
-      <c r="G59" s="48"/>
+      <c r="A59" s="41"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="41"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:P17"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="I7:P7"/>
     <mergeCell ref="B2:F3"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="I9:P9"/>
@@ -2139,6 +2230,16 @@
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="M12:P12"/>
     <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="I7:P7"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:P17"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="N15:O15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="86" orientation="landscape" r:id="rId1"/>
@@ -2150,10 +2251,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P43"/>
+  <dimension ref="A1:P81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22:N23"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2169,121 +2270,123 @@
   <sheetData>
     <row r="1" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
       <c r="G1" s="1"/>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="43" t="s">
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="123"/>
       <c r="P1" s="9"/>
     </row>
     <row r="2" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="I2" s="99" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="I2" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
     </row>
     <row r="3" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="127" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
       <c r="I3" s="6" t="s">
         <v>53</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
       <c r="N3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="O3" s="41"/>
+      <c r="O3" s="106"/>
       <c r="P3" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="59" t="s">
+      <c r="A4" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="I4" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
       <c r="N4" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="O4" s="36"/>
+      <c r="O4" s="6"/>
       <c r="P4" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="I5" s="59" t="s">
+      <c r="A5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="104"/>
       <c r="N5" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="O5" s="36"/>
+      <c r="O5" s="124"/>
       <c r="P5" s="6" t="s">
         <v>37</v>
       </c>
@@ -2293,11 +2396,9 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -2308,45 +2409,45 @@
       <c r="P6" s="4"/>
     </row>
     <row r="7" spans="1:16" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="52" t="s">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="126"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="I7" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77"/>
+      <c r="N7" s="77"/>
+      <c r="O7" s="78" t="s">
+        <v>62</v>
+      </c>
+      <c r="P7" s="79"/>
+    </row>
+    <row r="8" spans="1:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="52"/>
-      <c r="I7" s="100" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
-      <c r="N7" s="101"/>
-      <c r="O7" s="102" t="s">
-        <v>62</v>
-      </c>
-      <c r="P7" s="103"/>
-    </row>
-    <row r="8" spans="1:16" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="I8" s="104" t="s">
+      <c r="G8" s="47"/>
+      <c r="I8" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="105"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
       <c r="N8" s="15" t="s">
         <v>22</v>
       </c>
@@ -2354,279 +2455,271 @@
       <c r="P8" s="30"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="70" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="107"/>
-      <c r="K9" s="107"/>
-      <c r="L9" s="108"/>
+      <c r="A9" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="48"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="74"/>
       <c r="M9" s="17"/>
       <c r="N9" s="15"/>
       <c r="O9" s="14"/>
       <c r="P9" s="31"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="106"/>
-      <c r="J10" s="107"/>
-      <c r="K10" s="107"/>
-      <c r="L10" s="108"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="125" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="125"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="74"/>
       <c r="M10" s="17"/>
       <c r="N10" s="15"/>
       <c r="O10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="P10" s="32">
+      <c r="P10" s="116">
         <f>SUM(N9,N10,N11,N12,N13)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="I11" s="106"/>
-      <c r="J11" s="107"/>
-      <c r="K11" s="107"/>
-      <c r="L11" s="108"/>
-      <c r="M11" s="39"/>
+      <c r="A11" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="35"/>
       <c r="N11" s="16"/>
       <c r="O11" s="14"/>
       <c r="P11" s="31"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="65" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="65"/>
-      <c r="I12" s="96"/>
-      <c r="J12" s="94"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="95"/>
-      <c r="M12" s="40"/>
+      <c r="A12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="61"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="36"/>
       <c r="N12" s="2"/>
       <c r="O12" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="P12" s="49">
+      <c r="P12" s="117">
         <f>P10/1.95</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="70" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="I13" s="96"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="95"/>
-      <c r="M13" s="40"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="36"/>
       <c r="N13" s="2"/>
-      <c r="O13" s="119" t="s">
+      <c r="O13" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="P13" s="120"/>
+      <c r="P13" s="58"/>
     </row>
     <row r="14" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="70" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="I14" s="111" t="s">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="126"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="I14" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="112"/>
-      <c r="K14" s="112"/>
-      <c r="L14" s="112"/>
-      <c r="M14" s="112"/>
-      <c r="N14" s="112"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="65"/>
       <c r="O14" s="20"/>
-      <c r="P14" s="33"/>
+      <c r="P14" s="32"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="116"/>
-      <c r="J15" s="117"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="47"/>
+      <c r="I15" s="109"/>
+      <c r="J15" s="110"/>
       <c r="K15" s="21" t="s">
         <v>26</v>
       </c>
       <c r="L15" s="22"/>
-      <c r="M15" s="117"/>
-      <c r="N15" s="117"/>
+      <c r="M15" s="110"/>
+      <c r="N15" s="112"/>
       <c r="O15" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="P15" s="34"/>
+      <c r="P15" s="118"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="I16" s="118"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="91" t="s">
+      <c r="A16" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="48"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="104"/>
+      <c r="K16" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="L16" s="91"/>
-      <c r="M16" s="74"/>
-      <c r="N16" s="74"/>
+      <c r="L16" s="99"/>
+      <c r="M16" s="114"/>
+      <c r="N16" s="115"/>
       <c r="O16" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="P16" s="35"/>
+      <c r="P16" s="119"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="51"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="69" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="69"/>
-      <c r="I17" s="113" t="s">
+      <c r="A17" s="44"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="125" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="125"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="125"/>
+      <c r="I17" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="74"/>
-      <c r="N17" s="74"/>
-      <c r="O17" s="109" t="s">
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="111"/>
+      <c r="N17" s="111"/>
+      <c r="O17" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="P17" s="110"/>
+      <c r="P17" s="60"/>
     </row>
     <row r="18" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="70" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="70"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="I18" s="114" t="s">
+      <c r="A18" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="I18" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="J18" s="115"/>
-      <c r="K18" s="115"/>
-      <c r="L18" s="115"/>
-      <c r="M18" s="115"/>
-      <c r="N18" s="115"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
       <c r="O18" s="25"/>
-      <c r="P18" s="33"/>
+      <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="70" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="74"/>
-      <c r="M19" s="82"/>
-      <c r="N19" s="37"/>
+      <c r="A19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" s="88"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="89"/>
+      <c r="N19" s="33"/>
       <c r="O19" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="P19" s="34">
+      <c r="P19" s="118">
         <f>SUM(N19:N21)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="81"/>
-      <c r="J20" s="74"/>
-      <c r="K20" s="74"/>
-      <c r="L20" s="74"/>
-      <c r="M20" s="82"/>
-      <c r="N20" s="37"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="I20" s="88"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="89"/>
+      <c r="N20" s="33"/>
       <c r="O20" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="P20" s="50">
+      <c r="P20" s="120">
         <f>P19/1.95</f>
         <v>0</v>
       </c>
@@ -2635,174 +2728,176 @@
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="74"/>
-      <c r="K21" s="74"/>
-      <c r="L21" s="74"/>
-      <c r="M21" s="82"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="109" t="s">
+      <c r="D21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="126"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="89"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="P21" s="110"/>
+      <c r="P21" s="60"/>
     </row>
     <row r="22" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="I22" s="83" t="s">
+      <c r="A22" s="42"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" s="47"/>
+      <c r="I22" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="J22" s="84"/>
-      <c r="K22" s="84"/>
-      <c r="L22" s="84"/>
-      <c r="M22" s="84"/>
-      <c r="N22" s="85"/>
+      <c r="J22" s="91"/>
+      <c r="K22" s="91"/>
+      <c r="L22" s="91"/>
+      <c r="M22" s="91"/>
+      <c r="N22" s="92"/>
       <c r="O22" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="P22" s="35">
+      <c r="P22" s="32">
         <f>SUM(P10,P15,P19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="51"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="69" t="s">
-        <v>44</v>
-      </c>
-      <c r="G23" s="69"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="87"/>
-      <c r="K23" s="87"/>
-      <c r="L23" s="87"/>
-      <c r="M23" s="87"/>
-      <c r="N23" s="88"/>
+      <c r="A23" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="48"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="I23" s="93"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="94"/>
+      <c r="L23" s="94"/>
+      <c r="M23" s="94"/>
+      <c r="N23" s="95"/>
       <c r="O23" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="P23" s="50">
+      <c r="P23" s="120">
         <f>SUM(P12,P16,P20)</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="I24" s="83" t="s">
+      <c r="A24" s="44"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="125" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="125"/>
+      <c r="E24" s="125"/>
+      <c r="F24" s="125"/>
+      <c r="G24" s="125"/>
+      <c r="I24" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="J24" s="84"/>
-      <c r="K24" s="84"/>
-      <c r="L24" s="84"/>
-      <c r="M24" s="84"/>
-      <c r="N24" s="85"/>
+      <c r="J24" s="91"/>
+      <c r="K24" s="91"/>
+      <c r="L24" s="91"/>
+      <c r="M24" s="91"/>
+      <c r="N24" s="92"/>
       <c r="O24" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="P24" s="35"/>
+      <c r="P24" s="118"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="70" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="70"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="I25" s="121"/>
-      <c r="J25" s="89"/>
-      <c r="K25" s="89"/>
-      <c r="L25" s="89"/>
-      <c r="M25" s="89"/>
-      <c r="N25" s="90"/>
+      <c r="A25" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="I25" s="96"/>
+      <c r="J25" s="97"/>
+      <c r="K25" s="97"/>
+      <c r="L25" s="97"/>
+      <c r="M25" s="97"/>
+      <c r="N25" s="98"/>
       <c r="O25" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="P25" s="50"/>
+      <c r="P25" s="120"/>
     </row>
     <row r="26" spans="1:16" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="70" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="70"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="I26" s="92" t="s">
+      <c r="A26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="J26" s="93"/>
-      <c r="K26" s="93"/>
+      <c r="J26" s="101"/>
+      <c r="K26" s="101"/>
       <c r="L26" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="M26" s="94">
+      <c r="M26" s="62">
         <f>P22-P24</f>
         <v>0</v>
       </c>
-      <c r="N26" s="95"/>
-      <c r="O26" s="44" t="s">
+      <c r="N26" s="63"/>
+      <c r="O26" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="P26" s="50">
+      <c r="P26" s="121">
         <f>P23-P25</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="62"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I27" s="75" t="s">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="I27" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="J27" s="77" t="s">
+      <c r="J27" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="K27" s="78"/>
-      <c r="L27" s="77" t="s">
+      <c r="K27" s="85"/>
+      <c r="L27" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="M27" s="78"/>
-      <c r="N27" s="77" t="s">
+      <c r="M27" s="85"/>
+      <c r="N27" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="O27" s="78"/>
-      <c r="P27" s="72" t="s">
+      <c r="O27" s="85"/>
+      <c r="P27" s="80" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2810,29 +2905,31 @@
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="79"/>
-      <c r="K28" s="80"/>
-      <c r="L28" s="79"/>
-      <c r="M28" s="80"/>
-      <c r="N28" s="79"/>
-      <c r="O28" s="80"/>
-      <c r="P28" s="73"/>
+      <c r="D28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="126"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="I28" s="83"/>
+      <c r="J28" s="86"/>
+      <c r="K28" s="87"/>
+      <c r="L28" s="86"/>
+      <c r="M28" s="87"/>
+      <c r="N28" s="86"/>
+      <c r="O28" s="87"/>
+      <c r="P28" s="81"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="G29" s="47"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -2843,15 +2940,15 @@
       <c r="P29" s="11"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="51"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="69" t="s">
-        <v>44</v>
-      </c>
-      <c r="G30" s="69"/>
+      <c r="A30" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="48"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
@@ -2862,13 +2959,15 @@
       <c r="P30" s="11"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="125" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="125"/>
+      <c r="E31" s="125"/>
+      <c r="F31" s="125"/>
+      <c r="G31" s="125"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
@@ -2879,13 +2978,15 @@
       <c r="P31" s="11"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
+      <c r="A32" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
@@ -2896,13 +2997,19 @@
       <c r="P32" s="1"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
+      <c r="A33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
@@ -2912,15 +3019,15 @@
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="I34" s="18"/>
+    <row r="34" spans="1:16" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
@@ -2930,54 +3037,58 @@
       <c r="P34" s="1"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="126"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
+      <c r="A36" s="42"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="G36" s="47"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
       <c r="P36" s="1"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
       <c r="L37" s="1"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
       <c r="P37" s="1"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
@@ -2986,15 +3097,15 @@
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
       <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
       <c r="P38" s="1"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
@@ -3003,26 +3114,25 @@
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
       <c r="L39" s="1"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
       <c r="O39" s="1"/>
-      <c r="P39" s="19"/>
+      <c r="P39" s="1"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="11"/>
+      <c r="A40" s="6"/>
       <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="1"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
@@ -3033,13 +3143,14 @@
       <c r="P40" s="19"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A41" s="11"/>
+      <c r="A41" s="6"/>
       <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="1"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
@@ -3050,13 +3161,13 @@
       <c r="P41" s="19"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A42" s="11"/>
+      <c r="A42" s="48"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
+      <c r="D42" s="48"/>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
+      <c r="G42" s="48"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
@@ -3067,53 +3178,621 @@
       <c r="P42" s="19"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
+      <c r="A43" s="1"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
       <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
       <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
+      <c r="P43" s="19"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="102" t="s">
+        <v>39</v>
+      </c>
+      <c r="L46" s="102"/>
+      <c r="M46" s="102"/>
+      <c r="N46" s="102"/>
+      <c r="O46" s="102"/>
+      <c r="P46" s="1"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A47" s="44"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="43"/>
+      <c r="J47" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="K47" s="48"/>
+      <c r="L47" s="46"/>
+      <c r="M47" s="46"/>
+      <c r="N47" s="46"/>
+      <c r="O47" s="46"/>
+      <c r="P47" s="46"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A48" s="44"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="J48" s="44"/>
+      <c r="K48" s="48"/>
+      <c r="L48" s="125" t="s">
+        <v>6</v>
+      </c>
+      <c r="M48" s="125"/>
+      <c r="N48" s="125"/>
+      <c r="O48" s="125"/>
+      <c r="P48" s="125"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A49" s="48"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="J49" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="K49" s="48"/>
+      <c r="L49" s="48"/>
+      <c r="M49" s="48"/>
+      <c r="N49" s="48"/>
+      <c r="O49" s="48"/>
+      <c r="P49" s="48"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="J50" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K50" s="46"/>
+      <c r="L50" s="46"/>
+      <c r="M50" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N50" s="46"/>
+      <c r="O50" s="46"/>
+      <c r="P50" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A52" s="1"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="43"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N52" s="126"/>
+      <c r="O52" s="46"/>
+      <c r="P52" s="46"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="45"/>
+      <c r="G53" s="45"/>
+      <c r="J53" s="42"/>
+      <c r="K53" s="42"/>
+      <c r="L53" s="42"/>
+      <c r="M53" s="42"/>
+      <c r="N53" s="42"/>
+      <c r="O53" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="P53" s="47"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A54" s="44"/>
+      <c r="B54" s="48"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="J54" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="K54" s="48"/>
+      <c r="L54" s="46"/>
+      <c r="M54" s="46"/>
+      <c r="N54" s="46"/>
+      <c r="O54" s="46"/>
+      <c r="P54" s="46"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A55" s="44"/>
+      <c r="B55" s="48"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="37"/>
+      <c r="J55" s="44"/>
+      <c r="K55" s="48"/>
+      <c r="L55" s="125" t="s">
+        <v>6</v>
+      </c>
+      <c r="M55" s="125"/>
+      <c r="N55" s="125"/>
+      <c r="O55" s="125"/>
+      <c r="P55" s="125"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A56" s="48"/>
+      <c r="B56" s="48"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="48"/>
+      <c r="E56" s="48"/>
+      <c r="F56" s="48"/>
+      <c r="G56" s="48"/>
+      <c r="J56" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="K56" s="48"/>
+      <c r="L56" s="48"/>
+      <c r="M56" s="48"/>
+      <c r="N56" s="48"/>
+      <c r="O56" s="48"/>
+      <c r="P56" s="48"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="J57" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K57" s="46"/>
+      <c r="L57" s="46"/>
+      <c r="M57" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N57" s="46"/>
+      <c r="O57" s="46"/>
+      <c r="P57" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A59" s="1"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="43"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N59" s="126"/>
+      <c r="O59" s="46"/>
+      <c r="P59" s="46"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="45"/>
+      <c r="G60" s="45"/>
+      <c r="J60" s="42"/>
+      <c r="K60" s="42"/>
+      <c r="L60" s="42"/>
+      <c r="M60" s="42"/>
+      <c r="N60" s="42"/>
+      <c r="O60" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="P60" s="47"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A61" s="44"/>
+      <c r="B61" s="48"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="J61" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="K61" s="48"/>
+      <c r="L61" s="46"/>
+      <c r="M61" s="46"/>
+      <c r="N61" s="46"/>
+      <c r="O61" s="46"/>
+      <c r="P61" s="46"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A62" s="44"/>
+      <c r="B62" s="48"/>
+      <c r="C62" s="37"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="37"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="37"/>
+      <c r="J62" s="44"/>
+      <c r="K62" s="48"/>
+      <c r="L62" s="125" t="s">
+        <v>6</v>
+      </c>
+      <c r="M62" s="125"/>
+      <c r="N62" s="125"/>
+      <c r="O62" s="125"/>
+      <c r="P62" s="125"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A63" s="48"/>
+      <c r="B63" s="48"/>
+      <c r="C63" s="48"/>
+      <c r="D63" s="48"/>
+      <c r="E63" s="48"/>
+      <c r="F63" s="48"/>
+      <c r="G63" s="48"/>
+      <c r="J63" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="K63" s="48"/>
+      <c r="L63" s="48"/>
+      <c r="M63" s="48"/>
+      <c r="N63" s="48"/>
+      <c r="O63" s="48"/>
+      <c r="P63" s="48"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A64" s="1"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="43"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="43"/>
+      <c r="F64" s="43"/>
+      <c r="G64" s="1"/>
+      <c r="J64" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K64" s="46"/>
+      <c r="L64" s="46"/>
+      <c r="M64" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N64" s="46"/>
+      <c r="O64" s="46"/>
+      <c r="P64" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N66" s="126"/>
+      <c r="O66" s="46"/>
+      <c r="P66" s="46"/>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="45"/>
+      <c r="G67" s="45"/>
+      <c r="J67" s="42"/>
+      <c r="K67" s="42"/>
+      <c r="L67" s="42"/>
+      <c r="M67" s="42"/>
+      <c r="N67" s="42"/>
+      <c r="O67" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="P67" s="47"/>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J68" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="K68" s="48"/>
+      <c r="L68" s="46"/>
+      <c r="M68" s="46"/>
+      <c r="N68" s="46"/>
+      <c r="O68" s="46"/>
+      <c r="P68" s="46"/>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J69" s="44"/>
+      <c r="K69" s="48"/>
+      <c r="L69" s="125" t="s">
+        <v>6</v>
+      </c>
+      <c r="M69" s="125"/>
+      <c r="N69" s="125"/>
+      <c r="O69" s="125"/>
+      <c r="P69" s="125"/>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J70" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="K70" s="48"/>
+      <c r="L70" s="48"/>
+      <c r="M70" s="48"/>
+      <c r="N70" s="48"/>
+      <c r="O70" s="48"/>
+      <c r="P70" s="48"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J71" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K71" s="46"/>
+      <c r="L71" s="46"/>
+      <c r="M71" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N71" s="46"/>
+      <c r="O71" s="46"/>
+      <c r="P71" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N73" s="126"/>
+      <c r="O73" s="46"/>
+      <c r="P73" s="46"/>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J74" s="42"/>
+      <c r="K74" s="42"/>
+      <c r="L74" s="42"/>
+      <c r="M74" s="42"/>
+      <c r="N74" s="42"/>
+      <c r="O74" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="P74" s="47"/>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J75" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="K75" s="48"/>
+      <c r="L75" s="46"/>
+      <c r="M75" s="46"/>
+      <c r="N75" s="46"/>
+      <c r="O75" s="46"/>
+      <c r="P75" s="46"/>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J76" s="44"/>
+      <c r="K76" s="48"/>
+      <c r="L76" s="125" t="s">
+        <v>6</v>
+      </c>
+      <c r="M76" s="125"/>
+      <c r="N76" s="125"/>
+      <c r="O76" s="125"/>
+      <c r="P76" s="125"/>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J77" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="K77" s="48"/>
+      <c r="L77" s="48"/>
+      <c r="M77" s="48"/>
+      <c r="N77" s="48"/>
+      <c r="O77" s="48"/>
+      <c r="P77" s="48"/>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J78" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K78" s="46"/>
+      <c r="L78" s="46"/>
+      <c r="M78" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N78" s="46"/>
+      <c r="O78" s="46"/>
+      <c r="P78" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N80" s="126"/>
+      <c r="O80" s="46"/>
+      <c r="P80" s="46"/>
+    </row>
+    <row r="81" spans="10:16" x14ac:dyDescent="0.3">
+      <c r="J81" s="42"/>
+      <c r="K81" s="42"/>
+      <c r="L81" s="42"/>
+      <c r="M81" s="42"/>
+      <c r="N81" s="42"/>
+      <c r="O81" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="P81" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="69">
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:N14"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="I18:N18"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="I8:M8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="I7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:M5"/>
+  <mergeCells count="52">
+    <mergeCell ref="L69:P69"/>
+    <mergeCell ref="L76:P76"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="K46:O46"/>
+    <mergeCell ref="L48:P48"/>
+    <mergeCell ref="L55:P55"/>
+    <mergeCell ref="L62:P62"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="C10:G10"/>
     <mergeCell ref="P27:P28"/>
     <mergeCell ref="M16:N16"/>
     <mergeCell ref="I27:I28"/>
@@ -3129,24 +3808,32 @@
     <mergeCell ref="I26:K26"/>
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="O21:P21"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="I7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:N14"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="I18:N18"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="C17:G17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="84" orientation="landscape" r:id="rId1"/>
